--- a/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F3150-F18D-4641-9546-3B4B79EB9071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2CA95-DF8A-4312-8587-F336DCBA8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2131,10 +2131,10 @@
   <dimension ref="A1:U271"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A171" sqref="A171"/>
+      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C48" s="6">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>39</v>
@@ -3112,14 +3112,14 @@
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>37</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C144" s="6">
         <f t="shared" si="2"/>
-        <v>-997</v>
+        <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>24</v>
@@ -4834,14 +4834,14 @@
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>1076</v>
+        <v>2076</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="6">
         <f t="shared" si="2"/>
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>26</v>
@@ -10086,10 +10086,10 @@
   <dimension ref="A1:U282"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A156" sqref="A156"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="C41" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
@@ -10926,14 +10926,14 @@
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>24</v>
@@ -17019,7 +17019,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="J180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C198"/>
+      <selection pane="bottomRight" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20659,7 +20659,7 @@
       </c>
       <c r="C196" s="6">
         <f t="shared" si="2"/>
-        <v>-82</v>
+        <v>18</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>29</v>
@@ -20670,7 +20670,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="14">
-        <v>2816</v>
+        <v>2916</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>38</v>
@@ -20688,7 +20688,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="14">
-        <v>2820</v>
+        <v>2920</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>10</v>
@@ -20706,7 +20706,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="14">
-        <v>2823</v>
+        <v>2923</v>
       </c>
       <c r="B199" s="14"/>
       <c r="C199" s="6"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2CA95-DF8A-4312-8587-F336DCBA8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CCD4CE-D1D8-4986-ABE3-B70790364BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="D2" sheetId="3" r:id="rId2"/>
     <sheet name="D3" sheetId="4" r:id="rId3"/>
     <sheet name="S1" sheetId="5" r:id="rId4"/>
-    <sheet name="S3" sheetId="7" r:id="rId5"/>
+    <sheet name="S2" sheetId="8" r:id="rId5"/>
+    <sheet name="S3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="688">
   <si>
     <t>D1</t>
   </si>
@@ -1774,6 +1775,336 @@
   </si>
   <si>
     <t>P6050420</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>P6050243-4</t>
+  </si>
+  <si>
+    <t>P6050246</t>
+  </si>
+  <si>
+    <t>P6050244-5-6</t>
+  </si>
+  <si>
+    <t>P6050246-7-8</t>
+  </si>
+  <si>
+    <t>P6050248</t>
+  </si>
+  <si>
+    <t>P6050248-9</t>
+  </si>
+  <si>
+    <t>P6050249</t>
+  </si>
+  <si>
+    <t>P6050249-50-51</t>
+  </si>
+  <si>
+    <t>P6050251--56</t>
+  </si>
+  <si>
+    <t>P6050256</t>
+  </si>
+  <si>
+    <t>P6050256--59</t>
+  </si>
+  <si>
+    <t>P6050259</t>
+  </si>
+  <si>
+    <t>P6050259-60</t>
+  </si>
+  <si>
+    <t>P6050260</t>
+  </si>
+  <si>
+    <t>P6050260-1</t>
+  </si>
+  <si>
+    <t>P6050261</t>
+  </si>
+  <si>
+    <t>P6050261-2</t>
+  </si>
+  <si>
+    <t>P6050262-3</t>
+  </si>
+  <si>
+    <t>P6050263</t>
+  </si>
+  <si>
+    <t>P6050263-4</t>
+  </si>
+  <si>
+    <t>P6050264-5</t>
+  </si>
+  <si>
+    <t>P6050265</t>
+  </si>
+  <si>
+    <t>P6050265-6</t>
+  </si>
+  <si>
+    <t>P6050266</t>
+  </si>
+  <si>
+    <t>P6050266-7</t>
+  </si>
+  <si>
+    <t>massi</t>
+  </si>
+  <si>
+    <t>P6050267-8</t>
+  </si>
+  <si>
+    <t>P6050268</t>
+  </si>
+  <si>
+    <t>P6050268-9</t>
+  </si>
+  <si>
+    <t>P6050269</t>
+  </si>
+  <si>
+    <t>P6050269-70</t>
+  </si>
+  <si>
+    <t>P6050270</t>
+  </si>
+  <si>
+    <t>P6050274</t>
+  </si>
+  <si>
+    <t>P6050270---74</t>
+  </si>
+  <si>
+    <t>P6050274-5-6</t>
+  </si>
+  <si>
+    <t>P6050276</t>
+  </si>
+  <si>
+    <t>P6050276-7</t>
+  </si>
+  <si>
+    <t>P6050277</t>
+  </si>
+  <si>
+    <t>P6050277-8-9</t>
+  </si>
+  <si>
+    <t>P6050279</t>
+  </si>
+  <si>
+    <t>P6050279-80</t>
+  </si>
+  <si>
+    <t>P6050280</t>
+  </si>
+  <si>
+    <t>P6050280-1</t>
+  </si>
+  <si>
+    <t>P6050281-2</t>
+  </si>
+  <si>
+    <t>P6050282-3-4</t>
+  </si>
+  <si>
+    <t>P6050282</t>
+  </si>
+  <si>
+    <t>P6050284-5</t>
+  </si>
+  <si>
+    <t>P6050285</t>
+  </si>
+  <si>
+    <t>P6050285-6</t>
+  </si>
+  <si>
+    <t>P6050286-7</t>
+  </si>
+  <si>
+    <t>P6050287</t>
+  </si>
+  <si>
+    <t>P6050287-8-9</t>
+  </si>
+  <si>
+    <t>P6050289---92</t>
+  </si>
+  <si>
+    <t>P6050292-3</t>
+  </si>
+  <si>
+    <t>P6050293-4</t>
+  </si>
+  <si>
+    <t>P6050294</t>
+  </si>
+  <si>
+    <t>P6050294-5</t>
+  </si>
+  <si>
+    <t>P6050295</t>
+  </si>
+  <si>
+    <t>P6050295-6</t>
+  </si>
+  <si>
+    <t>P6050296</t>
+  </si>
+  <si>
+    <t>P6050296-7</t>
+  </si>
+  <si>
+    <t>P6050297</t>
+  </si>
+  <si>
+    <t>P6050297---300</t>
+  </si>
+  <si>
+    <t>P6050300</t>
+  </si>
+  <si>
+    <t>P6050300-1</t>
+  </si>
+  <si>
+    <t>P6050301</t>
+  </si>
+  <si>
+    <t>P6050301-2</t>
+  </si>
+  <si>
+    <t>P6050302-3</t>
+  </si>
+  <si>
+    <t>P6050303</t>
+  </si>
+  <si>
+    <t>P6050303-4</t>
+  </si>
+  <si>
+    <t>P6050304</t>
+  </si>
+  <si>
+    <t>P6050304-5</t>
+  </si>
+  <si>
+    <t>P6050305</t>
+  </si>
+  <si>
+    <t>P6050305-6</t>
+  </si>
+  <si>
+    <t>P6050306</t>
+  </si>
+  <si>
+    <t>P6050306-7</t>
+  </si>
+  <si>
+    <t>P6050307</t>
+  </si>
+  <si>
+    <t>P6050307-8</t>
+  </si>
+  <si>
+    <t>P6050308</t>
+  </si>
+  <si>
+    <t>P6050308-9-10</t>
+  </si>
+  <si>
+    <t>P6050310</t>
+  </si>
+  <si>
+    <t>P6050310-1</t>
+  </si>
+  <si>
+    <t>P6050311-2</t>
+  </si>
+  <si>
+    <t>P6050312</t>
+  </si>
+  <si>
+    <t>P6050312-3</t>
+  </si>
+  <si>
+    <t>P6050313</t>
+  </si>
+  <si>
+    <t>P6050313-4</t>
+  </si>
+  <si>
+    <t>P6050314</t>
+  </si>
+  <si>
+    <t>P6050314-5</t>
+  </si>
+  <si>
+    <t>P6050315</t>
+  </si>
+  <si>
+    <t>P6050315-6</t>
+  </si>
+  <si>
+    <t>P6050316</t>
+  </si>
+  <si>
+    <t>P6050316-7-8</t>
+  </si>
+  <si>
+    <t>P6050318</t>
+  </si>
+  <si>
+    <t>P6050318-9</t>
+  </si>
+  <si>
+    <t>P6050319</t>
+  </si>
+  <si>
+    <t>P6050319-20</t>
+  </si>
+  <si>
+    <t>P6050320-1</t>
+  </si>
+  <si>
+    <t>P6050321</t>
+  </si>
+  <si>
+    <t>P6050321-2</t>
+  </si>
+  <si>
+    <t>P6050322</t>
+  </si>
+  <si>
+    <t>P6050322---25</t>
+  </si>
+  <si>
+    <t>P6050325</t>
+  </si>
+  <si>
+    <t>P6050325-6</t>
+  </si>
+  <si>
+    <t>P6050326</t>
+  </si>
+  <si>
+    <t>P6050326-7</t>
+  </si>
+  <si>
+    <t>P6050327</t>
+  </si>
+  <si>
+    <t>P6050327-8</t>
+  </si>
+  <si>
+    <t>P6050328</t>
   </si>
 </sst>
 </file>
@@ -17009,13 +17340,3688 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F13CE-61AC-4BC5-86CA-C77E1662ACB3}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:U235"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="G156" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="I179" sqref="I179"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="10" width="8.59765625" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" customWidth="1"/>
+    <col min="12" max="22" width="8.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <f>A6-A5</f>
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>171</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>186</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>198</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="K10" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>216</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>246</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>249</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>253</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>267</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>281</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="K16" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>286</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>353</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="K18" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>513</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>533</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>581</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>586</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="K22" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>590</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="K23" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>597</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>603</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>606</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>608</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>611</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>613</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>620</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>623</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>660</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>680</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>690</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>736</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>767</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>772</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>798</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>800</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>806</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>814</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>867</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>870</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>875</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>878</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="K45" s="20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>882</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>885</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>889</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>895</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>910</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>922</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>970</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="20" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>974</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>979</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>984</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1086</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="K64" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1160</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="K65" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1164</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="K69" s="20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1190</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" ref="C70:C133" si="1">A71-A70</f>
+        <v>5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1195</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1201</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1254</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1261</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K74" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1259</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1279</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1283</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K77" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1286</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1298</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1325</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1341</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1360</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" s="20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1375</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="L84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="14">
+        <v>1393</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="14">
+        <v>1417</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="14">
+        <v>1424</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="14">
+        <v>1434</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="14">
+        <v>1457</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="14">
+        <v>1470</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="14">
+        <v>1489</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K91" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="14">
+        <v>1495</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K92" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="14">
+        <v>1496</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" s="20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="14">
+        <v>1514</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="14">
+        <v>1520</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K95" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="14">
+        <v>1526</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="14">
+        <v>1533</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="20" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="14">
+        <v>1556</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" s="20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="14">
+        <v>1566</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="14">
+        <v>1569</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" s="20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="14">
+        <v>1605</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K101" s="20" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="14">
+        <v>1608</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="14">
+        <v>1667</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="14">
+        <v>1671</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K104" s="20" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="14">
+        <v>1673</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" s="20" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="14">
+        <v>1682</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K106" s="20" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="14">
+        <v>1695</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K107" s="20" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="14">
+        <v>1698</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K108" s="20" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="14">
+        <v>1714</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K109" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="14">
+        <v>1720</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110" s="20" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="14">
+        <v>1739</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="14">
+        <v>1755</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K112" s="20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="14">
+        <v>1765</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="20" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="14">
+        <v>1774</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114" s="20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="14">
+        <v>1780</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="6"/>
+      <c r="K115" s="20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="14">
+        <v>1790</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" s="20" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="14">
+        <v>1811</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="14">
+        <v>1815</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" s="20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="14">
+        <v>1842</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K119" s="20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="14">
+        <v>1844</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K120" s="20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="14">
+        <v>1858</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K121" s="20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="14">
+        <v>1864</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K122" s="20" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="14">
+        <v>1906</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K123" s="20" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="14">
+        <v>1917</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K124" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="14">
+        <v>1919</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K125" s="20" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="14">
+        <v>1929</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K126" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="14">
+        <v>1938</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="14">
+        <v>1940</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K128" s="20" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="14">
+        <v>1994</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="K129" s="20" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="14">
+        <v>1997</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K130" s="20" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="14">
+        <v>2002</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K131" s="20" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="14">
+        <v>2056</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K132" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="L132" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="14">
+        <v>2078</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K133" s="20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="14">
+        <v>2087</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="6">
+        <f t="shared" ref="C134:C150" si="2">A135-A134</f>
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K134" s="20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="14">
+        <v>2090</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="14">
+        <v>2094</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K136" s="20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="14">
+        <v>2097</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K137" s="20" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="14">
+        <v>2122</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K138" s="20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="14">
+        <v>2128</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K139" s="20" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="14">
+        <v>2149</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K140" s="20" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="14">
+        <v>2155</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K141" s="20" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="14">
+        <v>2160</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="K142" s="20" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="14">
+        <v>2163</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K143" s="20" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="14">
+        <v>2170</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K144" s="20" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="14">
+        <v>2175</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="6">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K145" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="14">
+        <v>2188</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" s="12"/>
+      <c r="K146" s="20" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="14">
+        <v>2193</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="6">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K147" s="20" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="14">
+        <v>2232</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K148" s="20" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="14">
+        <v>2248</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="6">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K149" s="20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="14">
+        <v>2305</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K150" s="20" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="14">
+        <v>2309</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K151" s="20" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="14">
+        <v>2318</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K152" s="20" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="14">
+        <v>2337</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K153" s="20" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="14">
+        <v>2340</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K154" s="20" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="14">
+        <v>2346</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K155" s="20" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="14">
+        <v>2350</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K156" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="14">
+        <v>2393</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K157" s="20" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="14">
+        <v>2416</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K158" s="20" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="14">
+        <v>2424</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K159" s="20" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="14">
+        <v>2430</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K160" s="20" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="14">
+        <v>2438</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K161" s="20" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="14">
+        <v>2470</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K162" s="20" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="14">
+        <v>2474</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K163" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="14">
+        <v>2480</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K164" s="20" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="14">
+        <v>2488</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K165" s="20" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="14">
+        <v>2542</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K166" s="20" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="14">
+        <v>2545</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K167" s="20" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="14">
+        <v>2453</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K168" s="20" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="14">
+        <v>2457</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K169" s="20" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="14">
+        <v>2588</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K170" s="20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="14">
+        <v>2593</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K171" s="20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="14">
+        <v>2595</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K172" s="20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="14">
+        <v>2604</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K173" s="20" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="14">
+        <v>2635</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K174" s="20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="14">
+        <v>2638</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K175" s="20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="14">
+        <v>2643</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K176" s="20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="14">
+        <v>2647</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K177" s="20" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="14">
+        <v>2668</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K178" s="20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="14">
+        <v>2676</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K179" s="20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="14">
+        <v>2679</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K180" s="20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="14">
+        <v>2700</v>
+      </c>
+      <c r="B181" s="14"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="1"/>
+      <c r="K181" s="20"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B182" s="14"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="1"/>
+      <c r="K182" s="20"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="1"/>
+      <c r="K183" s="20"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="1"/>
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="1"/>
+      <c r="K186" s="20"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="K187" s="20"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="1"/>
+      <c r="K188" s="20"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="1"/>
+      <c r="K189" s="20"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="1"/>
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="1"/>
+      <c r="K191" s="20"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="1"/>
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="1"/>
+      <c r="K193" s="20"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="1"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="1"/>
+      <c r="K195" s="20"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="1"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="1"/>
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="1"/>
+      <c r="K198" s="20"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="K199" s="20"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="K200" s="6"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="K201" s="6"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="K202" s="6"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="K203" s="6"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="6"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="K204" s="6"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="6"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="K205" s="6"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="K206" s="6"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="6"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="K207" s="6"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="6"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="K208" s="6"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" s="6"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="K209" s="6"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" s="6"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="K210" s="6"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" s="6"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="K211" s="6"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" s="6"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="K212" s="6"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="K213" s="6"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="K214" s="6"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="K215" s="6"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="K216" s="6"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="K217" s="6"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="K218" s="6"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="K220" s="6"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="K221" s="6"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="K222" s="6"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="K223" s="6"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="K224" s="6"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="K225" s="6"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="K226" s="6"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="K227" s="6"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="K228" s="6"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="6"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="K229" s="6"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="K230" s="6"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="6"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="K231" s="6"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="6"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="K232" s="6"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="6"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="K233" s="6"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="K234" s="6"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CCD4CE-D1D8-4986-ABE3-B70790364BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6FC9C3-AEFF-4D86-A309-0BF8E821FD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17347,10 +17347,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I179" sqref="I179"/>
+      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19876,7 +19876,7 @@
         <v>14</v>
       </c>
       <c r="C134" s="6">
-        <f t="shared" ref="C134:C150" si="2">A135-A134</f>
+        <f t="shared" ref="C134:C180" si="2">A135-A134</f>
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -20180,7 +20180,10 @@
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="6"/>
+      <c r="C151" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="D151" s="1" t="s">
         <v>37</v>
       </c>
@@ -20195,7 +20198,10 @@
       <c r="B152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="6"/>
+      <c r="C152" s="6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="D152" s="1" t="s">
         <v>27</v>
       </c>
@@ -20210,7 +20216,10 @@
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C153" s="6"/>
+      <c r="C153" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D153" s="1" t="s">
         <v>37</v>
       </c>
@@ -20225,7 +20234,10 @@
       <c r="B154" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="6"/>
+      <c r="C154" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D154" s="1" t="s">
         <v>39</v>
       </c>
@@ -20240,7 +20252,10 @@
       <c r="B155" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="6"/>
+      <c r="C155" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D155" s="1" t="s">
         <v>39</v>
       </c>
@@ -20255,7 +20270,10 @@
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="6"/>
+      <c r="C156" s="6">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
       <c r="D156" s="1" t="s">
         <v>37</v>
       </c>
@@ -20270,7 +20288,10 @@
       <c r="B157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="6"/>
+      <c r="C157" s="6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
       <c r="D157" s="1" t="s">
         <v>24</v>
       </c>
@@ -20285,7 +20306,10 @@
       <c r="B158" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C158" s="6"/>
+      <c r="C158" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D158" s="1" t="s">
         <v>39</v>
       </c>
@@ -20300,7 +20324,10 @@
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="6"/>
+      <c r="C159" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D159" s="1" t="s">
         <v>37</v>
       </c>
@@ -20315,7 +20342,10 @@
       <c r="B160" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C160" s="6"/>
+      <c r="C160" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D160" s="1" t="s">
         <v>39</v>
       </c>
@@ -20330,7 +20360,10 @@
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C161" s="6"/>
+      <c r="C161" s="6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
       <c r="D161" s="1" t="s">
         <v>37</v>
       </c>
@@ -20345,7 +20378,10 @@
       <c r="B162" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C162" s="6"/>
+      <c r="C162" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D162" s="1" t="s">
         <v>39</v>
       </c>
@@ -20360,7 +20396,10 @@
       <c r="B163" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="6"/>
+      <c r="C163" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D163" s="1" t="s">
         <v>39</v>
       </c>
@@ -20376,7 +20415,10 @@
       <c r="B164" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C164" s="6"/>
+      <c r="C164" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D164" s="1" t="s">
         <v>39</v>
       </c>
@@ -20391,7 +20433,10 @@
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C165" s="6"/>
+      <c r="C165" s="6">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
       <c r="D165" s="1" t="s">
         <v>37</v>
       </c>
@@ -20406,7 +20451,10 @@
       <c r="B166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="6"/>
+      <c r="C166" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D166" s="1" t="s">
         <v>24</v>
       </c>
@@ -20421,7 +20469,10 @@
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C167" s="6"/>
+      <c r="C167" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D167" s="1" t="s">
         <v>37</v>
       </c>
@@ -20431,12 +20482,15 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
-        <v>2453</v>
+        <v>2553</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C168" s="6"/>
+      <c r="C168" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D168" s="1" t="s">
         <v>39</v>
       </c>
@@ -20446,12 +20500,15 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
-        <v>2457</v>
+        <v>2557</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C169" s="6"/>
+      <c r="C169" s="6">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
       <c r="D169" s="1" t="s">
         <v>37</v>
       </c>
@@ -20466,7 +20523,10 @@
       <c r="B170" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C170" s="6"/>
+      <c r="C170" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D170" s="1" t="s">
         <v>39</v>
       </c>
@@ -20481,7 +20541,10 @@
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="6"/>
+      <c r="C171" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D171" s="1" t="s">
         <v>37</v>
       </c>
@@ -20496,7 +20559,10 @@
       <c r="B172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="6"/>
+      <c r="C172" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="D172" s="1" t="s">
         <v>24</v>
       </c>
@@ -20511,7 +20577,10 @@
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C173" s="6"/>
+      <c r="C173" s="6">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
       <c r="D173" s="1" t="s">
         <v>37</v>
       </c>
@@ -20526,7 +20595,10 @@
       <c r="B174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C174" s="6"/>
+      <c r="C174" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D174" s="1" t="s">
         <v>24</v>
       </c>
@@ -20541,7 +20613,10 @@
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C175" s="6"/>
+      <c r="C175" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D175" s="1" t="s">
         <v>37</v>
       </c>
@@ -20556,7 +20631,10 @@
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C176" s="6"/>
+      <c r="C176" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D176" s="1" t="s">
         <v>29</v>
       </c>
@@ -20571,7 +20649,10 @@
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="6"/>
+      <c r="C177" s="6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="D177" s="1" t="s">
         <v>37</v>
       </c>
@@ -20586,7 +20667,10 @@
       <c r="B178" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C178" s="6"/>
+      <c r="C178" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D178" s="1" t="s">
         <v>39</v>
       </c>
@@ -20601,7 +20685,10 @@
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C179" s="6"/>
+      <c r="C179" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D179" s="1" t="s">
         <v>29</v>
       </c>
@@ -20616,7 +20703,10 @@
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C180" s="6"/>
+      <c r="C180" s="6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="D180" s="1" t="s">
         <v>37</v>
       </c>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6FC9C3-AEFF-4D86-A309-0BF8E821FD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58105C69-7616-40DC-BCDB-D490D96127E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <sheet name="S2" sheetId="8" r:id="rId5"/>
     <sheet name="S3" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$U$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'D3'!$A$4:$U$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$U$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="686">
   <si>
     <t>D1</t>
   </si>
@@ -715,9 +721,6 @@
     <t>P60601136</t>
   </si>
   <si>
-    <t>tuù</t>
-  </si>
-  <si>
     <t>P60601136-7</t>
   </si>
   <si>
@@ -899,9 +902,6 @@
   </si>
   <si>
     <t>P6060182</t>
-  </si>
-  <si>
-    <t>corymboise</t>
   </si>
   <si>
     <t>P6060182-3</t>
@@ -2123,22 +2123,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2149,6 +2153,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6311,10 +6316,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C216"/>
+      <selection pane="bottomRight" activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8651,7 +8656,7 @@
         <v>8</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>223</v>
@@ -8673,7 +8678,7 @@
         <v>25</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8691,7 +8696,7 @@
         <v>24</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8709,7 +8714,7 @@
         <v>39</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -8727,7 +8732,7 @@
         <v>24</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -8745,7 +8750,7 @@
         <v>37</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -8763,7 +8768,7 @@
         <v>24</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -8781,7 +8786,7 @@
         <v>29</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -8799,7 +8804,7 @@
         <v>24</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -8817,7 +8822,7 @@
         <v>37</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -8835,7 +8840,7 @@
         <v>29</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -8853,7 +8858,7 @@
         <v>24</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -8871,7 +8876,7 @@
         <v>37</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -8889,7 +8894,7 @@
         <v>177</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -8907,7 +8912,7 @@
         <v>37</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -8925,7 +8930,7 @@
         <v>26</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -8943,7 +8948,7 @@
         <v>37</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -8961,7 +8966,7 @@
         <v>24</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -8979,7 +8984,7 @@
         <v>37</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -8997,7 +9002,7 @@
         <v>24</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -9015,7 +9020,7 @@
         <v>37</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -9034,7 +9039,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -9052,7 +9057,7 @@
         <v>24</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -9070,7 +9075,7 @@
         <v>37</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -9088,7 +9093,7 @@
         <v>26</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -9106,7 +9111,7 @@
         <v>37</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -9124,7 +9129,7 @@
         <v>24</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -9142,7 +9147,7 @@
         <v>26</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -9160,7 +9165,7 @@
         <v>37</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -9178,7 +9183,7 @@
         <v>24</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -9196,7 +9201,7 @@
         <v>37</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -9214,7 +9219,7 @@
         <v>25</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -9232,7 +9237,7 @@
         <v>26</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -9250,7 +9255,7 @@
         <v>37</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -9268,7 +9273,7 @@
         <v>24</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -9286,7 +9291,7 @@
         <v>37</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -9304,7 +9309,7 @@
         <v>24</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -9322,7 +9327,7 @@
         <v>37</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -9340,7 +9345,7 @@
         <v>24</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -9359,7 +9364,7 @@
         <v>24</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -9377,7 +9382,7 @@
         <v>24</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -9395,7 +9400,7 @@
         <v>24</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -9413,7 +9418,7 @@
         <v>37</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -9431,7 +9436,7 @@
         <v>24</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -9449,7 +9454,7 @@
         <v>24</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -9467,7 +9472,7 @@
         <v>37</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -9485,10 +9490,10 @@
         <v>24</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L171" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -9506,10 +9511,10 @@
         <v>37</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L172" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -9527,7 +9532,7 @@
         <v>24</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9545,7 +9550,7 @@
         <v>29</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9563,7 +9568,7 @@
         <v>24</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9581,7 +9586,7 @@
         <v>29</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -9599,7 +9604,7 @@
         <v>24</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -9615,7 +9620,7 @@
       </c>
       <c r="D178" s="1"/>
       <c r="K178" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -9633,7 +9638,7 @@
         <v>37</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -9651,7 +9656,7 @@
         <v>29</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -9669,7 +9674,7 @@
         <v>24</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -9687,7 +9692,7 @@
         <v>37</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -9705,7 +9710,7 @@
         <v>26</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -9723,7 +9728,7 @@
         <v>37</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -9741,7 +9746,7 @@
         <v>24</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -9759,7 +9764,7 @@
         <v>37</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -9777,7 +9782,7 @@
         <v>29</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -9795,7 +9800,7 @@
         <v>37</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -9813,7 +9818,7 @@
         <v>24</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -9831,7 +9836,7 @@
         <v>29</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -9849,7 +9854,7 @@
         <v>24</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -9865,7 +9870,7 @@
       </c>
       <c r="D192" s="1"/>
       <c r="K192" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -9883,7 +9888,7 @@
         <v>24</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -9901,7 +9906,7 @@
         <v>26</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -9919,7 +9924,7 @@
         <v>37</v>
       </c>
       <c r="K195" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -9937,7 +9942,7 @@
         <v>24</v>
       </c>
       <c r="K196" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -9955,7 +9960,7 @@
         <v>37</v>
       </c>
       <c r="K197" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -9973,7 +9978,7 @@
         <v>39</v>
       </c>
       <c r="K198" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -9991,7 +9996,7 @@
         <v>37</v>
       </c>
       <c r="K199" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -10009,7 +10014,7 @@
         <v>24</v>
       </c>
       <c r="K200" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -10027,7 +10032,7 @@
         <v>37</v>
       </c>
       <c r="K201" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -10045,7 +10050,7 @@
         <v>39</v>
       </c>
       <c r="K202" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -10063,7 +10068,7 @@
         <v>24</v>
       </c>
       <c r="K203" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -10081,7 +10086,7 @@
         <v>37</v>
       </c>
       <c r="K204" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -10099,7 +10104,7 @@
         <v>24</v>
       </c>
       <c r="K205" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -10117,10 +10122,10 @@
         <v>24</v>
       </c>
       <c r="K206" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L206" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -10135,10 +10140,10 @@
         <v>13</v>
       </c>
       <c r="K207" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L207" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -10156,7 +10161,7 @@
         <v>39</v>
       </c>
       <c r="K208" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -10171,7 +10176,7 @@
         <v>3</v>
       </c>
       <c r="K209" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -10189,7 +10194,7 @@
         <v>39</v>
       </c>
       <c r="K210" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -10207,7 +10212,7 @@
         <v>37</v>
       </c>
       <c r="K211" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -10225,7 +10230,7 @@
         <v>26</v>
       </c>
       <c r="K212" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -10243,7 +10248,7 @@
         <v>37</v>
       </c>
       <c r="K213" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
@@ -10261,7 +10266,7 @@
         <v>26</v>
       </c>
       <c r="K214" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
@@ -10279,7 +10284,7 @@
         <v>37</v>
       </c>
       <c r="K215" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
@@ -10297,7 +10302,7 @@
         <v>39</v>
       </c>
       <c r="K216" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
@@ -10305,7 +10310,7 @@
         <v>2754</v>
       </c>
       <c r="K217" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -10403,6 +10408,7 @@
       <c r="A235" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U218" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10417,10 +10423,10 @@
   <dimension ref="A1:U282"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10555,7 +10561,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -10582,7 +10588,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -10604,7 +10610,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -10626,7 +10632,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -10652,7 +10658,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -10677,7 +10683,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -10698,7 +10704,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -10718,7 +10724,7 @@
         <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -10736,7 +10742,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -10757,7 +10763,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -10778,7 +10784,7 @@
         <v>37</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -10799,7 +10805,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10817,7 +10823,7 @@
         <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10836,7 +10842,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -10855,7 +10861,7 @@
         <v>39</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -10874,7 +10880,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10892,7 +10898,7 @@
         <v>39</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10911,7 +10917,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10930,7 +10936,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10948,7 +10954,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -10965,7 +10971,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="K25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -10984,7 +10990,7 @@
         <v>37</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -11003,7 +11009,7 @@
         <v>24</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -11022,7 +11028,7 @@
         <v>37</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11040,7 +11046,7 @@
         <v>29</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11058,7 +11064,7 @@
         <v>37</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11076,7 +11082,7 @@
         <v>26</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11094,7 +11100,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11109,10 +11115,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11130,7 +11136,7 @@
         <v>37</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11148,7 +11154,7 @@
         <v>24</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11166,7 +11172,7 @@
         <v>37</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11182,7 +11188,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11200,7 +11206,7 @@
         <v>37</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11218,7 +11224,7 @@
         <v>29</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11234,7 +11240,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11252,7 +11258,7 @@
         <v>29</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11270,7 +11276,7 @@
         <v>24</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -11289,7 +11295,7 @@
         <v>24</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11307,7 +11313,7 @@
         <v>37</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11326,7 +11332,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11344,7 +11350,7 @@
         <v>37</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -11363,7 +11369,7 @@
         <v>26</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11381,7 +11387,7 @@
         <v>29</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11399,7 +11405,7 @@
         <v>37</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11417,7 +11423,7 @@
         <v>24</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11435,7 +11441,7 @@
         <v>37</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11450,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11471,7 +11477,7 @@
         <v>37</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11489,7 +11495,7 @@
         <v>29</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11507,7 +11513,7 @@
         <v>37</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11525,7 +11531,7 @@
         <v>26</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11543,7 +11549,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11561,7 +11567,7 @@
         <v>37</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11579,7 +11585,7 @@
         <v>29</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11597,7 +11603,7 @@
         <v>37</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11615,7 +11621,7 @@
         <v>24</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11633,7 +11639,7 @@
         <v>37</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -11652,7 +11658,7 @@
         <v>26</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11671,7 +11677,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11690,7 +11696,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -11709,7 +11715,7 @@
         <v>39</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11727,7 +11733,7 @@
         <v>24</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11745,7 +11751,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11764,7 +11770,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11782,7 +11788,7 @@
         <v>37</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11800,7 +11806,7 @@
         <v>21</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11818,7 +11824,7 @@
         <v>24</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11836,7 +11842,7 @@
         <v>24</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -11855,7 +11861,7 @@
         <v>37</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11873,7 +11879,7 @@
         <v>39</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11891,7 +11897,7 @@
         <v>26</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11909,7 +11915,7 @@
         <v>37</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -11928,7 +11934,7 @@
         <v>24</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -11947,7 +11953,7 @@
         <v>37</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11965,7 +11971,7 @@
         <v>26</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11983,7 +11989,7 @@
         <v>26</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12001,7 +12007,7 @@
         <v>25</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12019,7 +12025,7 @@
         <v>26</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12037,7 +12043,7 @@
         <v>37</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12055,7 +12061,7 @@
         <v>26</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12073,7 +12079,7 @@
         <v>37</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12091,7 +12097,7 @@
         <v>24</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12109,7 +12115,7 @@
         <v>37</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12125,7 +12131,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12143,7 +12149,7 @@
         <v>37</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12161,7 +12167,7 @@
         <v>39</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12179,7 +12185,7 @@
         <v>37</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12194,10 +12200,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12215,7 +12221,7 @@
         <v>37</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12233,10 +12239,10 @@
         <v>23</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L95" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12254,10 +12260,10 @@
         <v>21</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L96" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12275,7 +12281,7 @@
         <v>39</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12293,7 +12299,7 @@
         <v>26</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12311,7 +12317,7 @@
         <v>37</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12329,7 +12335,7 @@
         <v>39</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12347,7 +12353,7 @@
         <v>37</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12365,7 +12371,7 @@
         <v>39</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12383,7 +12389,7 @@
         <v>39</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12401,7 +12407,7 @@
         <v>37</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12419,7 +12425,7 @@
         <v>25</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12437,7 +12443,7 @@
         <v>39</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12455,7 +12461,7 @@
         <v>37</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12473,7 +12479,7 @@
         <v>24</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12491,7 +12497,7 @@
         <v>26</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -12510,7 +12516,7 @@
         <v>29</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12528,7 +12534,7 @@
         <v>24</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12546,7 +12552,7 @@
         <v>37</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12564,7 +12570,7 @@
         <v>39</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12582,7 +12588,7 @@
         <v>39</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12601,7 +12607,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12619,7 +12625,7 @@
         <v>29</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12637,7 +12643,7 @@
         <v>24</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -12656,7 +12662,7 @@
         <v>39</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12674,7 +12680,7 @@
         <v>39</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12692,7 +12698,7 @@
         <v>39</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12710,7 +12716,7 @@
         <v>37</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12728,7 +12734,7 @@
         <v>24</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12746,7 +12752,7 @@
         <v>37</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12764,7 +12770,7 @@
         <v>39</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -12783,7 +12789,7 @@
         <v>37</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12801,7 +12807,7 @@
         <v>39</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12819,7 +12825,7 @@
         <v>37</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12837,7 +12843,7 @@
         <v>29</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12855,7 +12861,7 @@
         <v>37</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12873,7 +12879,7 @@
         <v>24</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12891,7 +12897,7 @@
         <v>37</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12907,7 +12913,7 @@
       </c>
       <c r="D132" s="1"/>
       <c r="K132" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12925,7 +12931,7 @@
         <v>37</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12943,7 +12949,7 @@
         <v>39</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12961,7 +12967,7 @@
         <v>39</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12979,7 +12985,7 @@
         <v>37</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12997,7 +13003,7 @@
         <v>39</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13015,7 +13021,7 @@
         <v>39</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13033,7 +13039,7 @@
         <v>39</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13051,7 +13057,7 @@
         <v>37</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13067,7 +13073,7 @@
       </c>
       <c r="D141" s="14"/>
       <c r="K141" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13085,7 +13091,7 @@
         <v>37</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13101,7 +13107,7 @@
       </c>
       <c r="D143" s="14"/>
       <c r="K143" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13119,7 +13125,7 @@
         <v>24</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13137,7 +13143,7 @@
         <v>37</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13156,7 +13162,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13174,7 +13180,7 @@
         <v>29</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13192,7 +13198,7 @@
         <v>37</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13210,7 +13216,7 @@
         <v>26</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13228,7 +13234,7 @@
         <v>39</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13246,7 +13252,7 @@
         <v>26</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13264,7 +13270,7 @@
         <v>26</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13282,7 +13288,7 @@
         <v>39</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13300,7 +13306,7 @@
         <v>24</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13310,7 +13316,7 @@
       <c r="C155" s="6"/>
       <c r="D155" s="14"/>
       <c r="K155" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14158,6 +14164,7 @@
       <c r="K282" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U156" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14307,7 +14314,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -14332,7 +14339,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -14352,7 +14359,7 @@
         <v>37</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -14372,7 +14379,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -14396,7 +14403,7 @@
         <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -14420,7 +14427,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -14441,7 +14448,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -14461,7 +14468,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -14481,7 +14488,7 @@
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -14502,7 +14509,7 @@
         <v>39</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -14523,7 +14530,7 @@
         <v>37</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -14543,7 +14550,7 @@
         <v>39</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -14561,7 +14568,7 @@
         <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -14579,7 +14586,7 @@
         <v>39</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -14598,7 +14605,7 @@
         <v>37</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -14617,7 +14624,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -14635,7 +14642,7 @@
         <v>37</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -14653,7 +14660,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -14671,7 +14678,7 @@
         <v>37</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -14689,7 +14696,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -14708,7 +14715,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -14727,7 +14734,7 @@
         <v>27</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -14746,7 +14753,7 @@
         <v>37</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -14765,7 +14772,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -14783,7 +14790,7 @@
         <v>37</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -14801,7 +14808,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -14819,7 +14826,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -14837,7 +14844,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -14855,7 +14862,7 @@
         <v>37</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -14873,7 +14880,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -14891,7 +14898,7 @@
         <v>37</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -14909,7 +14916,7 @@
         <v>29</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -14927,7 +14934,7 @@
         <v>37</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -14945,7 +14952,7 @@
         <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -14963,7 +14970,7 @@
         <v>24</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -14981,7 +14988,7 @@
         <v>37</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -14999,7 +15006,7 @@
         <v>29</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -15017,7 +15024,7 @@
         <v>37</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -15036,7 +15043,7 @@
         <v>29</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -15054,7 +15061,7 @@
         <v>37</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -15072,7 +15079,7 @@
         <v>24</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -15090,7 +15097,7 @@
         <v>37</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -15109,7 +15116,7 @@
         <v>26</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -15127,7 +15134,7 @@
         <v>37</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -15145,7 +15152,7 @@
         <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -15163,7 +15170,7 @@
         <v>37</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -15181,7 +15188,7 @@
         <v>27</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -15199,7 +15206,7 @@
         <v>27</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -15217,7 +15224,7 @@
         <v>22</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -15235,7 +15242,7 @@
         <v>29</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -15250,7 +15257,7 @@
         <v>4</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -15268,7 +15275,7 @@
         <v>29</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -15286,7 +15293,7 @@
         <v>37</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -15304,7 +15311,7 @@
         <v>39</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -15322,7 +15329,7 @@
         <v>37</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -15340,7 +15347,7 @@
         <v>26</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -15355,7 +15362,7 @@
         <v>7</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -15373,7 +15380,7 @@
         <v>24</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -15392,7 +15399,7 @@
         <v>39</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -15410,7 +15417,7 @@
         <v>26</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -15428,7 +15435,7 @@
         <v>37</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -15447,7 +15454,7 @@
         <v>39</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -15465,7 +15472,7 @@
         <v>37</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -15483,7 +15490,7 @@
         <v>39</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -15501,7 +15508,7 @@
         <v>39</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -15519,7 +15526,7 @@
         <v>37</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -15537,7 +15544,7 @@
         <v>26</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -15555,7 +15562,7 @@
         <v>37</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -15573,7 +15580,7 @@
         <v>26</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -15592,7 +15599,7 @@
         <v>26</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -15610,7 +15617,7 @@
         <v>39</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -15628,7 +15635,7 @@
         <v>39</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -15646,7 +15653,7 @@
         <v>23</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -15665,7 +15672,7 @@
         <v>27</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -15684,7 +15691,7 @@
         <v>39</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -15702,7 +15709,7 @@
         <v>37</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -15720,7 +15727,7 @@
         <v>39</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -15738,7 +15745,7 @@
         <v>39</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -15756,7 +15763,7 @@
         <v>37</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -15774,7 +15781,7 @@
         <v>27</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -15792,7 +15799,7 @@
         <v>37</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -15810,7 +15817,7 @@
         <v>29</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -15828,7 +15835,7 @@
         <v>37</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -15846,7 +15853,7 @@
         <v>24</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -15864,7 +15871,7 @@
         <v>37</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -15882,7 +15889,7 @@
         <v>29</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -15898,7 +15905,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -15916,7 +15923,7 @@
         <v>37</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -15932,7 +15939,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -15950,7 +15957,7 @@
         <v>37</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -15968,7 +15975,7 @@
         <v>29</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -15986,7 +15993,7 @@
         <v>24</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -16004,7 +16011,7 @@
         <v>29</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -16022,7 +16029,7 @@
         <v>37</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -16040,7 +16047,7 @@
         <v>39</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -16058,7 +16065,7 @@
         <v>21</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -16076,7 +16083,7 @@
         <v>26</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -16094,7 +16101,7 @@
         <v>37</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -16112,7 +16119,7 @@
         <v>39</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -16130,7 +16137,7 @@
         <v>37</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -16148,7 +16155,7 @@
         <v>21</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -16166,7 +16173,7 @@
         <v>37</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -16184,7 +16191,7 @@
         <v>24</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -16202,7 +16209,7 @@
         <v>29</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -16220,7 +16227,7 @@
         <v>37</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -16238,7 +16245,7 @@
         <v>26</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -16256,7 +16263,7 @@
         <v>26</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -16274,7 +16281,7 @@
         <v>29</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -16292,7 +16299,7 @@
         <v>37</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -16310,7 +16317,7 @@
         <v>29</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -16329,7 +16336,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -16347,7 +16354,7 @@
         <v>29</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -16365,7 +16372,7 @@
         <v>37</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -16384,7 +16391,7 @@
         <v>25</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -16402,7 +16409,7 @@
         <v>37</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -16420,7 +16427,7 @@
         <v>25</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -16438,7 +16445,7 @@
         <v>37</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -16456,7 +16463,7 @@
         <v>29</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -16474,7 +16481,7 @@
         <v>37</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -16492,7 +16499,7 @@
         <v>39</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -16511,7 +16518,7 @@
         <v>37</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -16529,7 +16536,7 @@
         <v>21</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -16547,7 +16554,7 @@
         <v>37</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -16565,7 +16572,7 @@
         <v>21</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -16583,7 +16590,7 @@
         <v>39</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -16601,7 +16608,7 @@
         <v>37</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -16619,7 +16626,7 @@
         <v>24</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -16637,7 +16644,7 @@
         <v>24</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -16655,7 +16662,7 @@
         <v>39</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -16673,7 +16680,7 @@
         <v>24</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -16691,7 +16698,7 @@
         <v>37</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -16709,7 +16716,7 @@
         <v>27</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -16727,7 +16734,7 @@
         <v>37</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -16745,7 +16752,7 @@
         <v>24</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -16763,7 +16770,7 @@
         <v>37</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -16781,7 +16788,7 @@
         <v>24</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -16799,7 +16806,7 @@
         <v>24</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -16817,7 +16824,7 @@
         <v>37</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -16827,7 +16834,7 @@
       <c r="C143" s="6"/>
       <c r="D143" s="1"/>
       <c r="K143" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -17346,11 +17353,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
+      <selection pane="bottomRight" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17368,12 +17375,12 @@
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -17386,7 +17393,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -17404,7 +17411,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -17423,7 +17430,7 @@
       <c r="L3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -17468,7 +17475,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>70</v>
       </c>
@@ -17485,7 +17492,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -17495,7 +17502,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>123</v>
       </c>
@@ -17512,12 +17519,12 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>171</v>
       </c>
@@ -17534,12 +17541,12 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>186</v>
       </c>
@@ -17556,7 +17563,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -17565,7 +17572,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>198</v>
       </c>
@@ -17582,7 +17589,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -17591,7 +17598,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>208</v>
       </c>
@@ -17607,13 +17614,13 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>216</v>
       </c>
@@ -17628,12 +17635,12 @@
         <v>39</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>246</v>
       </c>
@@ -17648,12 +17655,12 @@
         <v>37</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>249</v>
       </c>
@@ -17668,13 +17675,13 @@
         <v>21</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>253</v>
       </c>
@@ -17689,13 +17696,13 @@
         <v>37</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>267</v>
       </c>
@@ -17710,12 +17717,12 @@
         <v>39</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>281</v>
       </c>
@@ -17731,10 +17738,10 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>286</v>
       </c>
@@ -17749,10 +17756,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>353</v>
       </c>
@@ -17768,11 +17775,11 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="20" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>513</v>
       </c>
@@ -17787,11 +17794,11 @@
         <v>39</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>533</v>
       </c>
@@ -17806,15 +17813,15 @@
         <v>37</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>581</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -17824,10 +17831,10 @@
         <v>24</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>586</v>
       </c>
@@ -17843,10 +17850,10 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="20" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>590</v>
       </c>
@@ -17862,10 +17869,10 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="20" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>597</v>
       </c>
@@ -17880,11 +17887,11 @@
         <v>29</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>603</v>
       </c>
@@ -17899,11 +17906,11 @@
         <v>21</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>606</v>
       </c>
@@ -17918,11 +17925,11 @@
         <v>24</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>608</v>
       </c>
@@ -17937,11 +17944,11 @@
         <v>24</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>611</v>
       </c>
@@ -17956,10 +17963,10 @@
         <v>37</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>613</v>
       </c>
@@ -17974,10 +17981,10 @@
         <v>22</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>620</v>
       </c>
@@ -17992,10 +17999,10 @@
         <v>37</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>623</v>
       </c>
@@ -18010,10 +18017,10 @@
         <v>24</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>660</v>
       </c>
@@ -18028,10 +18035,10 @@
         <v>37</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>680</v>
       </c>
@@ -18046,10 +18053,10 @@
         <v>39</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>690</v>
       </c>
@@ -18064,10 +18071,10 @@
         <v>37</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>736</v>
       </c>
@@ -18082,10 +18089,10 @@
         <v>27</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>767</v>
       </c>
@@ -18100,10 +18107,10 @@
         <v>37</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>772</v>
       </c>
@@ -18118,10 +18125,10 @@
         <v>39</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>798</v>
       </c>
@@ -18136,10 +18143,10 @@
         <v>24</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>800</v>
       </c>
@@ -18154,10 +18161,10 @@
         <v>37</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>806</v>
       </c>
@@ -18172,10 +18179,10 @@
         <v>39</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>814</v>
       </c>
@@ -18190,10 +18197,10 @@
         <v>37</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>867</v>
       </c>
@@ -18208,11 +18215,11 @@
         <v>39</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>870</v>
       </c>
@@ -18227,10 +18234,10 @@
         <v>37</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>875</v>
       </c>
@@ -18242,13 +18249,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="K44" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="K44" s="20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>878</v>
       </c>
@@ -18264,10 +18271,10 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>882</v>
       </c>
@@ -18282,11 +18289,11 @@
         <v>24</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>885</v>
       </c>
@@ -18301,10 +18308,10 @@
         <v>37</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>889</v>
       </c>
@@ -18319,10 +18326,10 @@
         <v>24</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>895</v>
       </c>
@@ -18337,10 +18344,10 @@
         <v>37</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>910</v>
       </c>
@@ -18355,10 +18362,10 @@
         <v>39</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>922</v>
       </c>
@@ -18373,10 +18380,10 @@
         <v>37</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>970</v>
       </c>
@@ -18391,10 +18398,10 @@
         <v>21</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>974</v>
       </c>
@@ -18409,10 +18416,10 @@
         <v>37</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>979</v>
       </c>
@@ -18427,10 +18434,10 @@
         <v>21</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>984</v>
       </c>
@@ -18445,10 +18452,10 @@
         <v>37</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1008</v>
       </c>
@@ -18463,10 +18470,10 @@
         <v>29</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1010</v>
       </c>
@@ -18481,10 +18488,10 @@
         <v>24</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1037</v>
       </c>
@@ -18499,10 +18506,10 @@
         <v>37</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>1055</v>
       </c>
@@ -18517,10 +18524,10 @@
         <v>39</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1059</v>
       </c>
@@ -18535,10 +18542,10 @@
         <v>37</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>1086</v>
       </c>
@@ -18553,10 +18560,10 @@
         <v>24</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>1090</v>
       </c>
@@ -18571,11 +18578,11 @@
         <v>29</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1093</v>
       </c>
@@ -18590,10 +18597,10 @@
         <v>37</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1157</v>
       </c>
@@ -18609,10 +18616,10 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1160</v>
       </c>
@@ -18628,11 +18635,11 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1164</v>
       </c>
@@ -18647,10 +18654,10 @@
         <v>37</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1174</v>
       </c>
@@ -18665,10 +18672,10 @@
         <v>29</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1177</v>
       </c>
@@ -18683,10 +18690,10 @@
         <v>37</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1183</v>
       </c>
@@ -18702,10 +18709,10 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="20" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1190</v>
       </c>
@@ -18720,10 +18727,10 @@
         <v>24</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1195</v>
       </c>
@@ -18738,10 +18745,10 @@
         <v>39</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>1201</v>
       </c>
@@ -18756,10 +18763,10 @@
         <v>37</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>1254</v>
       </c>
@@ -18774,11 +18781,11 @@
         <v>39</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>1261</v>
       </c>
@@ -18793,10 +18800,10 @@
         <v>37</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>1259</v>
       </c>
@@ -18811,10 +18818,10 @@
         <v>29</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1279</v>
       </c>
@@ -18829,10 +18836,10 @@
         <v>24</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1283</v>
       </c>
@@ -18847,11 +18854,11 @@
         <v>29</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1286</v>
       </c>
@@ -18866,11 +18873,11 @@
         <v>37</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>1298</v>
       </c>
@@ -18885,10 +18892,10 @@
         <v>39</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1325</v>
       </c>
@@ -18903,10 +18910,10 @@
         <v>24</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1341</v>
       </c>
@@ -18921,10 +18928,10 @@
         <v>37</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1350</v>
       </c>
@@ -18939,10 +18946,10 @@
         <v>24</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1360</v>
       </c>
@@ -18957,10 +18964,10 @@
         <v>37</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1375</v>
       </c>
@@ -18975,13 +18982,13 @@
         <v>27</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L84" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>1393</v>
       </c>
@@ -18996,10 +19003,10 @@
         <v>37</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>1417</v>
       </c>
@@ -19014,10 +19021,10 @@
         <v>24</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>1424</v>
       </c>
@@ -19032,10 +19039,10 @@
         <v>37</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>1434</v>
       </c>
@@ -19050,10 +19057,10 @@
         <v>24</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>1457</v>
       </c>
@@ -19068,10 +19075,10 @@
         <v>37</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>1470</v>
       </c>
@@ -19086,10 +19093,10 @@
         <v>21</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>1489</v>
       </c>
@@ -19104,10 +19111,10 @@
         <v>37</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>1495</v>
       </c>
@@ -19122,10 +19129,10 @@
         <v>29</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>1496</v>
       </c>
@@ -19140,10 +19147,10 @@
         <v>26</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>1514</v>
       </c>
@@ -19158,10 +19165,10 @@
         <v>37</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>1520</v>
       </c>
@@ -19176,10 +19183,10 @@
         <v>29</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>1526</v>
       </c>
@@ -19194,10 +19201,10 @@
         <v>37</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>1533</v>
       </c>
@@ -19212,10 +19219,10 @@
         <v>24</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>1556</v>
       </c>
@@ -19230,10 +19237,10 @@
         <v>37</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>1566</v>
       </c>
@@ -19248,10 +19255,10 @@
         <v>39</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>1569</v>
       </c>
@@ -19266,10 +19273,10 @@
         <v>37</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>1605</v>
       </c>
@@ -19284,10 +19291,10 @@
         <v>25</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>1608</v>
       </c>
@@ -19302,10 +19309,10 @@
         <v>21</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>1667</v>
       </c>
@@ -19320,10 +19327,10 @@
         <v>37</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>1671</v>
       </c>
@@ -19338,10 +19345,10 @@
         <v>24</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>1673</v>
       </c>
@@ -19356,10 +19363,10 @@
         <v>39</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>1682</v>
       </c>
@@ -19374,10 +19381,10 @@
         <v>26</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>1695</v>
       </c>
@@ -19392,10 +19399,10 @@
         <v>29</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>1698</v>
       </c>
@@ -19410,10 +19417,10 @@
         <v>37</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>1714</v>
       </c>
@@ -19428,11 +19435,11 @@
         <v>24</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>1720</v>
       </c>
@@ -19447,10 +19454,10 @@
         <v>37</v>
       </c>
       <c r="K110" s="20" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>1739</v>
       </c>
@@ -19465,10 +19472,10 @@
         <v>21</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>1755</v>
       </c>
@@ -19483,10 +19490,10 @@
         <v>37</v>
       </c>
       <c r="K112" s="20" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>1765</v>
       </c>
@@ -19501,10 +19508,10 @@
         <v>27</v>
       </c>
       <c r="K113" s="20" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>1774</v>
       </c>
@@ -19519,10 +19526,10 @@
         <v>37</v>
       </c>
       <c r="K114" s="20" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>1780</v>
       </c>
@@ -19538,10 +19545,10 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="20" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>1790</v>
       </c>
@@ -19556,10 +19563,10 @@
         <v>37</v>
       </c>
       <c r="K116" s="20" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>1811</v>
       </c>
@@ -19574,11 +19581,11 @@
         <v>39</v>
       </c>
       <c r="K117" s="20" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>1815</v>
       </c>
@@ -19593,10 +19600,10 @@
         <v>37</v>
       </c>
       <c r="K118" s="20" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>1842</v>
       </c>
@@ -19611,10 +19618,10 @@
         <v>24</v>
       </c>
       <c r="K119" s="20" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>1844</v>
       </c>
@@ -19629,10 +19636,10 @@
         <v>37</v>
       </c>
       <c r="K120" s="20" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>1858</v>
       </c>
@@ -19647,10 +19654,10 @@
         <v>24</v>
       </c>
       <c r="K121" s="20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>1864</v>
       </c>
@@ -19665,10 +19672,10 @@
         <v>24</v>
       </c>
       <c r="K122" s="20" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>1906</v>
       </c>
@@ -19683,10 +19690,10 @@
         <v>24</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>1917</v>
       </c>
@@ -19701,11 +19708,11 @@
         <v>37</v>
       </c>
       <c r="K124" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>1919</v>
       </c>
@@ -19720,10 +19727,10 @@
         <v>24</v>
       </c>
       <c r="K125" s="20" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>1929</v>
       </c>
@@ -19738,10 +19745,10 @@
         <v>37</v>
       </c>
       <c r="K126" s="20" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>1938</v>
       </c>
@@ -19756,10 +19763,10 @@
         <v>29</v>
       </c>
       <c r="K127" s="20" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>1940</v>
       </c>
@@ -19774,10 +19781,10 @@
         <v>37</v>
       </c>
       <c r="K128" s="20" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>1994</v>
       </c>
@@ -19790,10 +19797,10 @@
       </c>
       <c r="D129" s="6"/>
       <c r="K129" s="20" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>1997</v>
       </c>
@@ -19808,10 +19815,10 @@
         <v>39</v>
       </c>
       <c r="K130" s="20" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>2002</v>
       </c>
@@ -19826,10 +19833,10 @@
         <v>37</v>
       </c>
       <c r="K131" s="20" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>2056</v>
       </c>
@@ -19844,13 +19851,13 @@
         <v>39</v>
       </c>
       <c r="K132" s="20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L132" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>2078</v>
       </c>
@@ -19865,10 +19872,10 @@
         <v>24</v>
       </c>
       <c r="K133" s="20" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>2087</v>
       </c>
@@ -19883,10 +19890,10 @@
         <v>39</v>
       </c>
       <c r="K134" s="20" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>2090</v>
       </c>
@@ -19901,10 +19908,10 @@
         <v>37</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>2094</v>
       </c>
@@ -19919,10 +19926,10 @@
         <v>39</v>
       </c>
       <c r="K136" s="20" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>2097</v>
       </c>
@@ -19937,10 +19944,10 @@
         <v>37</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>2122</v>
       </c>
@@ -19955,10 +19962,10 @@
         <v>39</v>
       </c>
       <c r="K138" s="20" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>2128</v>
       </c>
@@ -19973,10 +19980,10 @@
         <v>37</v>
       </c>
       <c r="K139" s="20" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>2149</v>
       </c>
@@ -19991,10 +19998,10 @@
         <v>39</v>
       </c>
       <c r="K140" s="20" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>2155</v>
       </c>
@@ -20009,10 +20016,10 @@
         <v>37</v>
       </c>
       <c r="K141" s="20" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>2160</v>
       </c>
@@ -20025,10 +20032,10 @@
       </c>
       <c r="D142" s="1"/>
       <c r="K142" s="20" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>2163</v>
       </c>
@@ -20043,10 +20050,10 @@
         <v>37</v>
       </c>
       <c r="K143" s="20" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>2170</v>
       </c>
@@ -20061,10 +20068,10 @@
         <v>39</v>
       </c>
       <c r="K144" s="20" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>2175</v>
       </c>
@@ -20079,10 +20086,10 @@
         <v>37</v>
       </c>
       <c r="K145" s="20" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>2188</v>
       </c>
@@ -20098,10 +20105,10 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="20" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>2193</v>
       </c>
@@ -20116,10 +20123,10 @@
         <v>37</v>
       </c>
       <c r="K147" s="20" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>2232</v>
       </c>
@@ -20134,10 +20141,10 @@
         <v>24</v>
       </c>
       <c r="K148" s="20" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>2248</v>
       </c>
@@ -20152,10 +20159,10 @@
         <v>37</v>
       </c>
       <c r="K149" s="20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>2305</v>
       </c>
@@ -20170,10 +20177,10 @@
         <v>24</v>
       </c>
       <c r="K150" s="20" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>2309</v>
       </c>
@@ -20188,10 +20195,10 @@
         <v>37</v>
       </c>
       <c r="K151" s="20" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>2318</v>
       </c>
@@ -20206,10 +20213,10 @@
         <v>27</v>
       </c>
       <c r="K152" s="20" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>2337</v>
       </c>
@@ -20224,10 +20231,10 @@
         <v>37</v>
       </c>
       <c r="K153" s="20" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>2340</v>
       </c>
@@ -20242,10 +20249,10 @@
         <v>39</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>2346</v>
       </c>
@@ -20260,10 +20267,10 @@
         <v>39</v>
       </c>
       <c r="K155" s="20" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>2350</v>
       </c>
@@ -20278,10 +20285,10 @@
         <v>37</v>
       </c>
       <c r="K156" s="20" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>2393</v>
       </c>
@@ -20296,10 +20303,10 @@
         <v>24</v>
       </c>
       <c r="K157" s="20" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>2416</v>
       </c>
@@ -20314,10 +20321,10 @@
         <v>39</v>
       </c>
       <c r="K158" s="20" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>2424</v>
       </c>
@@ -20332,10 +20339,10 @@
         <v>37</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>2430</v>
       </c>
@@ -20350,10 +20357,10 @@
         <v>39</v>
       </c>
       <c r="K160" s="20" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>2438</v>
       </c>
@@ -20368,10 +20375,10 @@
         <v>37</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>2470</v>
       </c>
@@ -20386,10 +20393,10 @@
         <v>39</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>2474</v>
       </c>
@@ -20404,11 +20411,11 @@
         <v>39</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>2480</v>
       </c>
@@ -20423,10 +20430,10 @@
         <v>39</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>2488</v>
       </c>
@@ -20441,10 +20448,10 @@
         <v>37</v>
       </c>
       <c r="K165" s="20" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>2542</v>
       </c>
@@ -20459,10 +20466,10 @@
         <v>24</v>
       </c>
       <c r="K166" s="20" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>2545</v>
       </c>
@@ -20477,10 +20484,10 @@
         <v>37</v>
       </c>
       <c r="K167" s="20" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>2553</v>
       </c>
@@ -20495,10 +20502,10 @@
         <v>39</v>
       </c>
       <c r="K168" s="20" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>2557</v>
       </c>
@@ -20513,10 +20520,10 @@
         <v>37</v>
       </c>
       <c r="K169" s="20" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>2588</v>
       </c>
@@ -20531,10 +20538,10 @@
         <v>39</v>
       </c>
       <c r="K170" s="20" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>2593</v>
       </c>
@@ -20549,10 +20556,10 @@
         <v>37</v>
       </c>
       <c r="K171" s="20" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>2595</v>
       </c>
@@ -20567,10 +20574,10 @@
         <v>24</v>
       </c>
       <c r="K172" s="20" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>2604</v>
       </c>
@@ -20585,10 +20592,10 @@
         <v>37</v>
       </c>
       <c r="K173" s="20" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>2635</v>
       </c>
@@ -20603,10 +20610,10 @@
         <v>24</v>
       </c>
       <c r="K174" s="20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>2638</v>
       </c>
@@ -20621,10 +20628,10 @@
         <v>37</v>
       </c>
       <c r="K175" s="20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>2643</v>
       </c>
@@ -20639,10 +20646,10 @@
         <v>29</v>
       </c>
       <c r="K176" s="20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>2647</v>
       </c>
@@ -20657,10 +20664,10 @@
         <v>37</v>
       </c>
       <c r="K177" s="20" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>2668</v>
       </c>
@@ -20675,10 +20682,10 @@
         <v>39</v>
       </c>
       <c r="K178" s="20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>2676</v>
       </c>
@@ -20693,10 +20700,10 @@
         <v>29</v>
       </c>
       <c r="K179" s="20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>2679</v>
       </c>
@@ -20711,10 +20718,10 @@
         <v>37</v>
       </c>
       <c r="K180" s="20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>2700</v>
       </c>
@@ -20723,7 +20730,7 @@
       <c r="D181" s="1"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>42</v>
       </c>
@@ -20732,259 +20739,259 @@
       <c r="D182" s="1"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="6"/>
       <c r="D183" s="1"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="6"/>
       <c r="D185" s="1"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="6"/>
       <c r="D186" s="1"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="6"/>
       <c r="D188" s="1"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="6"/>
       <c r="D189" s="1"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="6"/>
       <c r="D190" s="1"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="6"/>
       <c r="D191" s="1"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="6"/>
       <c r="D192" s="1"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="6"/>
       <c r="D193" s="1"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="6"/>
       <c r="D194" s="1"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="6"/>
       <c r="D195" s="1"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="6"/>
       <c r="D196" s="1"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="6"/>
       <c r="D197" s="1"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="6"/>
       <c r="D198" s="1"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="K200" s="6"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="K201" s="6"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="K202" s="6"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="K203" s="6"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="K205" s="6"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="K206" s="6"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="K207" s="6"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="K208" s="6"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="K209" s="6"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="K210" s="6"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="K211" s="6"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="K212" s="6"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="K213" s="6"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="K214" s="6"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="K215" s="6"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="K216" s="6"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="K217" s="6"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="K218" s="6"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -20992,110 +20999,110 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="K221" s="6"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="C234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
   </sheetData>
@@ -21111,11 +21118,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A195" sqref="A195"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21250,7 +21257,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -21277,7 +21284,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -21299,7 +21306,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -21321,7 +21328,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -21347,7 +21354,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -21372,7 +21379,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -21393,7 +21400,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -21413,7 +21420,7 @@
         <v>37</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -21433,7 +21440,7 @@
         <v>39</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -21454,7 +21461,7 @@
         <v>37</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -21475,7 +21482,7 @@
         <v>39</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -21496,7 +21503,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -21514,7 +21521,7 @@
         <v>37</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -21533,7 +21540,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -21552,7 +21559,7 @@
         <v>37</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -21571,7 +21578,7 @@
         <v>39</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -21589,7 +21596,7 @@
         <v>37</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -21608,7 +21615,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -21627,7 +21634,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -21645,7 +21652,7 @@
         <v>39</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -21664,7 +21671,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -21683,7 +21690,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -21702,7 +21709,7 @@
         <v>37</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -21721,7 +21728,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -21739,7 +21746,7 @@
         <v>37</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -21757,7 +21764,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -21775,7 +21782,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -21793,7 +21800,7 @@
         <v>39</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -21811,7 +21818,7 @@
         <v>37</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -21827,7 +21834,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="K34" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -21845,7 +21852,7 @@
         <v>37</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -21863,7 +21870,7 @@
         <v>24</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -21881,7 +21888,7 @@
         <v>37</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -21899,7 +21906,7 @@
         <v>26</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -21917,7 +21924,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -21935,7 +21942,7 @@
         <v>26</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -21953,7 +21960,7 @@
         <v>26</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -21971,7 +21978,7 @@
         <v>37</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -21990,7 +21997,7 @@
         <v>39</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -22008,7 +22015,7 @@
         <v>39</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -22027,7 +22034,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -22045,7 +22052,7 @@
         <v>37</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -22062,7 +22069,7 @@
       </c>
       <c r="D47" s="6"/>
       <c r="K47" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -22080,7 +22087,7 @@
         <v>39</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -22098,7 +22105,7 @@
         <v>37</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -22114,7 +22121,7 @@
       </c>
       <c r="D50" s="6"/>
       <c r="K50" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -22132,7 +22139,7 @@
         <v>37</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -22150,7 +22157,7 @@
         <v>24</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -22168,7 +22175,7 @@
         <v>39</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -22186,7 +22193,7 @@
         <v>39</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -22204,7 +22211,7 @@
         <v>37</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -22222,7 +22229,7 @@
         <v>39</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -22240,7 +22247,7 @@
         <v>39</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -22256,7 +22263,7 @@
       </c>
       <c r="D58" s="6"/>
       <c r="K58" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -22274,7 +22281,7 @@
         <v>39</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -22292,7 +22299,7 @@
         <v>37</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -22310,7 +22317,7 @@
         <v>39</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -22328,7 +22335,7 @@
         <v>37</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -22347,7 +22354,7 @@
         <v>29</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -22366,7 +22373,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -22385,7 +22392,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -22404,7 +22411,7 @@
         <v>37</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -22422,7 +22429,7 @@
         <v>24</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -22440,7 +22447,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -22459,7 +22466,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -22477,7 +22484,7 @@
         <v>24</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -22495,7 +22502,7 @@
         <v>37</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -22513,7 +22520,7 @@
         <v>29</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -22531,7 +22538,7 @@
         <v>37</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -22550,7 +22557,7 @@
         <v>24</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -22568,7 +22575,7 @@
         <v>39</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -22586,7 +22593,7 @@
         <v>29</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -22604,7 +22611,7 @@
         <v>37</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -22623,7 +22630,7 @@
         <v>24</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -22642,7 +22649,7 @@
         <v>29</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -22660,7 +22667,7 @@
         <v>37</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -22678,7 +22685,7 @@
         <v>29</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -22696,7 +22703,7 @@
         <v>37</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -22714,7 +22721,7 @@
         <v>39</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -22732,7 +22739,7 @@
         <v>37</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -22750,7 +22757,7 @@
         <v>39</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -22768,7 +22775,7 @@
         <v>37</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -22786,7 +22793,7 @@
         <v>39</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -22804,7 +22811,7 @@
         <v>24</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -22822,7 +22829,7 @@
         <v>37</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -22840,7 +22847,7 @@
         <v>29</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -22858,7 +22865,7 @@
         <v>37</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -22876,7 +22883,7 @@
         <v>29</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -22894,7 +22901,7 @@
         <v>37</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -22912,7 +22919,7 @@
         <v>29</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -22930,7 +22937,7 @@
         <v>37</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -22948,7 +22955,7 @@
         <v>29</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -22966,7 +22973,7 @@
         <v>37</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -22984,7 +22991,7 @@
         <v>24</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -23002,7 +23009,7 @@
         <v>25</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -23020,7 +23027,7 @@
         <v>29</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -23038,7 +23045,7 @@
         <v>37</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -23056,7 +23063,7 @@
         <v>39</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -23074,7 +23081,7 @@
         <v>29</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -23092,7 +23099,7 @@
         <v>24</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -23110,7 +23117,7 @@
         <v>39</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -23128,7 +23135,7 @@
         <v>24</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -23146,7 +23153,7 @@
         <v>29</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -23164,7 +23171,7 @@
         <v>37</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -23182,7 +23189,7 @@
         <v>29</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -23199,7 +23206,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="K110" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -23217,7 +23224,7 @@
         <v>29</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -23235,7 +23242,7 @@
         <v>37</v>
       </c>
       <c r="K112" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -23253,7 +23260,7 @@
         <v>29</v>
       </c>
       <c r="K113" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -23271,7 +23278,7 @@
         <v>37</v>
       </c>
       <c r="K114" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -23290,7 +23297,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -23308,7 +23315,7 @@
         <v>37</v>
       </c>
       <c r="K116" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -23326,7 +23333,7 @@
         <v>24</v>
       </c>
       <c r="K117" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -23345,7 +23352,7 @@
         <v>37</v>
       </c>
       <c r="K118" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -23363,7 +23370,7 @@
         <v>24</v>
       </c>
       <c r="K119" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -23381,7 +23388,7 @@
         <v>29</v>
       </c>
       <c r="K120" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -23399,7 +23406,7 @@
         <v>24</v>
       </c>
       <c r="K121" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -23417,7 +23424,7 @@
         <v>37</v>
       </c>
       <c r="K122" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -23435,7 +23442,7 @@
         <v>39</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -23453,7 +23460,7 @@
         <v>26</v>
       </c>
       <c r="K124" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -23472,7 +23479,7 @@
         <v>37</v>
       </c>
       <c r="K125" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -23490,7 +23497,7 @@
         <v>29</v>
       </c>
       <c r="K126" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -23506,10 +23513,10 @@
       </c>
       <c r="D127" s="6"/>
       <c r="K127" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L127" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -23527,7 +23534,7 @@
         <v>29</v>
       </c>
       <c r="K128" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -23543,7 +23550,7 @@
       </c>
       <c r="D129" s="6"/>
       <c r="K129" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -23558,10 +23565,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K130" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -23579,7 +23586,7 @@
         <v>24</v>
       </c>
       <c r="K131" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -23597,7 +23604,7 @@
         <v>37</v>
       </c>
       <c r="K132" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -23615,7 +23622,7 @@
         <v>29</v>
       </c>
       <c r="K133" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -23633,7 +23640,7 @@
         <v>37</v>
       </c>
       <c r="K134" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -23651,7 +23658,7 @@
         <v>24</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -23669,7 +23676,7 @@
         <v>37</v>
       </c>
       <c r="K136" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -23687,10 +23694,10 @@
         <v>39</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -23708,10 +23715,10 @@
         <v>37</v>
       </c>
       <c r="K138" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L138" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -23729,7 +23736,7 @@
         <v>39</v>
       </c>
       <c r="K139" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -23747,7 +23754,7 @@
         <v>37</v>
       </c>
       <c r="K140" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -23765,7 +23772,7 @@
         <v>39</v>
       </c>
       <c r="K141" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -23773,7 +23780,7 @@
         <v>2007</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C142" s="6">
         <f t="shared" si="2"/>
@@ -23783,7 +23790,7 @@
         <v>26</v>
       </c>
       <c r="K142" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -23801,10 +23808,10 @@
         <v>37</v>
       </c>
       <c r="K143" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L143" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -23822,10 +23829,10 @@
         <v>29</v>
       </c>
       <c r="K144" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L144" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -23843,7 +23850,7 @@
         <v>39</v>
       </c>
       <c r="K145" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -23862,7 +23869,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -23880,7 +23887,7 @@
         <v>26</v>
       </c>
       <c r="K147" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -23898,7 +23905,7 @@
         <v>37</v>
       </c>
       <c r="K148" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -23916,7 +23923,7 @@
         <v>29</v>
       </c>
       <c r="K149" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -23934,7 +23941,7 @@
         <v>37</v>
       </c>
       <c r="K150" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -23949,10 +23956,10 @@
         <v>2</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K151" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -23970,7 +23977,7 @@
         <v>26</v>
       </c>
       <c r="K152" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -23988,7 +23995,7 @@
         <v>39</v>
       </c>
       <c r="K153" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -24006,7 +24013,7 @@
         <v>21</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -24024,7 +24031,7 @@
         <v>37</v>
       </c>
       <c r="K155" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -24040,10 +24047,10 @@
       </c>
       <c r="D156" s="6"/>
       <c r="K156" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L156" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -24061,10 +24068,10 @@
         <v>39</v>
       </c>
       <c r="K157" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L157" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -24082,7 +24089,7 @@
         <v>37</v>
       </c>
       <c r="K158" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -24100,7 +24107,7 @@
         <v>39</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -24118,7 +24125,7 @@
         <v>29</v>
       </c>
       <c r="K160" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -24136,7 +24143,7 @@
         <v>37</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -24154,7 +24161,7 @@
         <v>29</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -24172,7 +24179,7 @@
         <v>37</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -24191,7 +24198,7 @@
         <v>39</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -24207,7 +24214,7 @@
       </c>
       <c r="D165" s="6"/>
       <c r="K165" s="20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -24225,7 +24232,7 @@
         <v>29</v>
       </c>
       <c r="K166" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -24243,7 +24250,7 @@
         <v>37</v>
       </c>
       <c r="K167" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -24261,7 +24268,7 @@
         <v>39</v>
       </c>
       <c r="K168" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -24279,7 +24286,7 @@
         <v>37</v>
       </c>
       <c r="K169" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -24297,7 +24304,7 @@
         <v>27</v>
       </c>
       <c r="K170" s="20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -24315,7 +24322,7 @@
         <v>37</v>
       </c>
       <c r="K171" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -24333,7 +24340,7 @@
         <v>39</v>
       </c>
       <c r="K172" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -24351,7 +24358,7 @@
         <v>26</v>
       </c>
       <c r="K173" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -24369,7 +24376,7 @@
         <v>37</v>
       </c>
       <c r="K174" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -24387,7 +24394,7 @@
         <v>29</v>
       </c>
       <c r="K175" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -24405,7 +24412,7 @@
         <v>37</v>
       </c>
       <c r="K176" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -24423,7 +24430,7 @@
         <v>29</v>
       </c>
       <c r="K177" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -24441,7 +24448,7 @@
         <v>21</v>
       </c>
       <c r="K178" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -24459,7 +24466,7 @@
         <v>26</v>
       </c>
       <c r="K179" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -24477,7 +24484,7 @@
         <v>28</v>
       </c>
       <c r="K180" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -24495,7 +24502,7 @@
         <v>39</v>
       </c>
       <c r="K181" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -24513,7 +24520,7 @@
         <v>26</v>
       </c>
       <c r="K182" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -24531,7 +24538,7 @@
         <v>37</v>
       </c>
       <c r="K183" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -24547,7 +24554,7 @@
       </c>
       <c r="D184" s="6"/>
       <c r="K184" s="20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -24565,7 +24572,7 @@
         <v>29</v>
       </c>
       <c r="K185" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -24583,7 +24590,7 @@
         <v>26</v>
       </c>
       <c r="K186" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -24599,7 +24606,7 @@
       </c>
       <c r="D187" s="6"/>
       <c r="K187" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -24617,7 +24624,7 @@
         <v>37</v>
       </c>
       <c r="K188" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -24635,7 +24642,7 @@
         <v>29</v>
       </c>
       <c r="K189" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -24653,7 +24660,7 @@
         <v>37</v>
       </c>
       <c r="K190" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -24671,7 +24678,7 @@
         <v>29</v>
       </c>
       <c r="K191" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -24689,7 +24696,7 @@
         <v>39</v>
       </c>
       <c r="K192" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -24707,7 +24714,7 @@
         <v>26</v>
       </c>
       <c r="K193" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -24725,7 +24732,7 @@
         <v>37</v>
       </c>
       <c r="K194" s="20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -24743,7 +24750,7 @@
         <v>24</v>
       </c>
       <c r="K195" s="20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -24761,7 +24768,7 @@
         <v>29</v>
       </c>
       <c r="K196" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -24779,7 +24786,7 @@
         <v>39</v>
       </c>
       <c r="K197" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -24797,7 +24804,7 @@
         <v>37</v>
       </c>
       <c r="K198" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -24808,7 +24815,7 @@
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="K199" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -25059,6 +25066,7 @@
       <c r="A235" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U4" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58105C69-7616-40DC-BCDB-D490D96127E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289B02A-50B1-494C-8D0E-58CEBF2F46AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="S3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$U$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$U$218</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'D3'!$A$4:$U$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$182</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="685">
   <si>
     <t>D1</t>
   </si>
@@ -1853,9 +1854,6 @@
   </si>
   <si>
     <t>P6050266-7</t>
-  </si>
-  <si>
-    <t>massi</t>
   </si>
   <si>
     <t>P6050267-8</t>
@@ -2467,10 +2465,10 @@
   <dimension ref="A1:U271"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6304,6 +6302,7 @@
       <c r="K271" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U171" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10417,16 +10416,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U282"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
+      <selection pane="bottomRight" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10544,7 +10543,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>80</v>
       </c>
@@ -10593,7 +10592,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>110</v>
       </c>
@@ -10615,7 +10614,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>113</v>
       </c>
@@ -10641,7 +10640,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>124</v>
       </c>
@@ -10667,7 +10666,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>127</v>
       </c>
@@ -10689,7 +10688,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>157</v>
       </c>
@@ -10709,7 +10708,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>171</v>
       </c>
@@ -10729,7 +10728,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>173</v>
       </c>
@@ -10769,7 +10768,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>177</v>
       </c>
@@ -10789,7 +10788,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>191</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>193</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>233</v>
       </c>
@@ -10846,7 +10845,7 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>282</v>
       </c>
@@ -10865,7 +10864,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>287</v>
       </c>
@@ -10883,7 +10882,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>293</v>
       </c>
@@ -10901,7 +10900,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>347</v>
       </c>
@@ -10920,7 +10919,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>366</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>370</v>
       </c>
@@ -10958,7 +10957,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>389</v>
       </c>
@@ -10975,7 +10974,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>391</v>
       </c>
@@ -10994,7 +10993,7 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>399</v>
       </c>
@@ -11013,7 +11012,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>406</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>417</v>
       </c>
@@ -11067,7 +11066,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>420</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>453</v>
       </c>
@@ -11103,7 +11102,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>456</v>
       </c>
@@ -11121,7 +11120,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>462</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>478</v>
       </c>
@@ -11157,7 +11156,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>503</v>
       </c>
@@ -11175,7 +11174,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>523</v>
       </c>
@@ -11191,7 +11190,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>528</v>
       </c>
@@ -11227,7 +11226,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>534</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>538</v>
       </c>
@@ -11280,7 +11279,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>539</v>
       </c>
@@ -11298,7 +11297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>544</v>
       </c>
@@ -11316,7 +11315,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>552</v>
       </c>
@@ -11335,7 +11334,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>556</v>
       </c>
@@ -11354,7 +11353,7 @@
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>569</v>
       </c>
@@ -11390,7 +11389,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>600</v>
       </c>
@@ -11408,7 +11407,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>610</v>
       </c>
@@ -11426,7 +11425,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>612</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>622</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>634</v>
       </c>
@@ -11516,7 +11515,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>635</v>
       </c>
@@ -11534,7 +11533,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>665</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>672</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>689</v>
       </c>
@@ -11606,7 +11605,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>764</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>775</v>
       </c>
@@ -11643,7 +11642,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>780</v>
       </c>
@@ -11661,7 +11660,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>785</v>
       </c>
@@ -11680,7 +11679,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>789</v>
       </c>
@@ -11700,7 +11699,7 @@
       </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>794</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>798</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>800</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>828</v>
       </c>
@@ -11791,7 +11790,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>837</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>903</v>
       </c>
@@ -11827,7 +11826,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>935</v>
       </c>
@@ -11846,7 +11845,7 @@
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>941</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>957</v>
       </c>
@@ -11882,7 +11881,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>968</v>
       </c>
@@ -11900,7 +11899,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>984</v>
       </c>
@@ -11919,7 +11918,7 @@
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>988</v>
       </c>
@@ -11938,7 +11937,7 @@
       </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>994</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1014</v>
       </c>
@@ -11974,7 +11973,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1024</v>
       </c>
@@ -11992,7 +11991,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1053</v>
       </c>
@@ -12010,7 +12009,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1058</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1063</v>
       </c>
@@ -12046,7 +12045,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1098</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1111</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1141</v>
       </c>
@@ -12100,7 +12099,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1145</v>
       </c>
@@ -12118,7 +12117,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1190</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1193</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1219</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1226</v>
       </c>
@@ -12188,7 +12187,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1235</v>
       </c>
@@ -12206,7 +12205,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1238</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1276</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1300</v>
       </c>
@@ -12266,7 +12265,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1376</v>
       </c>
@@ -12284,7 +12283,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1408</v>
       </c>
@@ -12302,7 +12301,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1410</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1422</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1429</v>
       </c>
@@ -12356,7 +12355,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1484</v>
       </c>
@@ -12374,7 +12373,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1505</v>
       </c>
@@ -12392,7 +12391,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1509</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1547</v>
       </c>
@@ -12428,7 +12427,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1570</v>
       </c>
@@ -12446,7 +12445,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1583</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1598</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1602</v>
       </c>
@@ -12519,7 +12518,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1650</v>
       </c>
@@ -12537,7 +12536,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1658</v>
       </c>
@@ -12555,7 +12554,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1730</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>1929</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1950</v>
       </c>
@@ -12628,7 +12627,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>1970</v>
       </c>
@@ -12647,7 +12646,7 @@
       </c>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1990</v>
       </c>
@@ -12665,7 +12664,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>1996</v>
       </c>
@@ -12683,7 +12682,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2020</v>
       </c>
@@ -12701,7 +12700,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2042</v>
       </c>
@@ -12719,7 +12718,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2150</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2156</v>
       </c>
@@ -12755,7 +12754,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2168</v>
       </c>
@@ -12774,7 +12773,7 @@
       </c>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2214</v>
       </c>
@@ -12792,7 +12791,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2217</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2240</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2252</v>
       </c>
@@ -12864,7 +12863,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2265</v>
       </c>
@@ -12882,7 +12881,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2270</v>
       </c>
@@ -12900,7 +12899,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2274</v>
       </c>
@@ -12916,7 +12915,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2282</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2288</v>
       </c>
@@ -12952,7 +12951,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2347</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2519</v>
       </c>
@@ -12988,7 +12987,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2581</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2595</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2679</v>
       </c>
@@ -13042,7 +13041,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2684</v>
       </c>
@@ -13060,7 +13059,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2719</v>
       </c>
@@ -13076,7 +13075,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2734</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2739</v>
       </c>
@@ -13110,7 +13109,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2742</v>
       </c>
@@ -13128,7 +13127,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2746</v>
       </c>
@@ -13146,7 +13145,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2759</v>
       </c>
@@ -13183,7 +13182,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2768</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2773</v>
       </c>
@@ -13219,7 +13218,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2782</v>
       </c>
@@ -13237,7 +13236,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2785</v>
       </c>
@@ -13255,7 +13254,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2796</v>
       </c>
@@ -13273,7 +13272,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2813</v>
       </c>
@@ -13291,7 +13290,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2817</v>
       </c>
@@ -13309,7 +13308,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2822</v>
       </c>
@@ -13319,7 +13318,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>42</v>
       </c>
@@ -14164,7 +14163,13 @@
       <c r="K282" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:U156" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A4:U156" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="CCA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17354,10 +17359,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B183" sqref="B183"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18215,7 +18220,7 @@
         <v>39</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -18234,7 +18239,7 @@
         <v>37</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18249,10 +18254,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>602</v>
+        <v>25</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18271,7 +18276,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18289,7 +18294,7 @@
         <v>24</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -18308,7 +18313,7 @@
         <v>37</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18326,7 +18331,7 @@
         <v>24</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18344,7 +18349,7 @@
         <v>37</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18362,7 +18367,7 @@
         <v>39</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18380,7 +18385,7 @@
         <v>37</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18398,7 +18403,7 @@
         <v>21</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18416,7 +18421,7 @@
         <v>37</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18434,7 +18439,7 @@
         <v>21</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18452,7 +18457,7 @@
         <v>37</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18470,7 +18475,7 @@
         <v>29</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18488,7 +18493,7 @@
         <v>24</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18506,7 +18511,7 @@
         <v>37</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18524,7 +18529,7 @@
         <v>39</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18542,7 +18547,7 @@
         <v>37</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18560,7 +18565,7 @@
         <v>24</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18578,7 +18583,7 @@
         <v>29</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -18597,7 +18602,7 @@
         <v>37</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18616,7 +18621,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18635,7 +18640,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -18654,7 +18659,7 @@
         <v>37</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18672,7 +18677,7 @@
         <v>29</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18690,7 +18695,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18709,7 +18714,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18727,7 +18732,7 @@
         <v>24</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18745,7 +18750,7 @@
         <v>39</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18763,7 +18768,7 @@
         <v>37</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18781,7 +18786,7 @@
         <v>39</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -18800,7 +18805,7 @@
         <v>37</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18818,7 +18823,7 @@
         <v>29</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18836,7 +18841,7 @@
         <v>24</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18854,7 +18859,7 @@
         <v>29</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -18873,7 +18878,7 @@
         <v>37</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -18892,7 +18897,7 @@
         <v>39</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18910,7 +18915,7 @@
         <v>24</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18928,7 +18933,7 @@
         <v>37</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18946,7 +18951,7 @@
         <v>24</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18964,7 +18969,7 @@
         <v>37</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18982,7 +18987,7 @@
         <v>27</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L84" t="s">
         <v>43</v>
@@ -19003,7 +19008,7 @@
         <v>37</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19021,7 +19026,7 @@
         <v>24</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19039,7 +19044,7 @@
         <v>37</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19057,7 +19062,7 @@
         <v>24</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19075,7 +19080,7 @@
         <v>37</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19093,7 +19098,7 @@
         <v>21</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19111,7 +19116,7 @@
         <v>37</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19129,7 +19134,7 @@
         <v>29</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19147,7 +19152,7 @@
         <v>26</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19165,7 +19170,7 @@
         <v>37</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19183,7 +19188,7 @@
         <v>29</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19201,7 +19206,7 @@
         <v>37</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19219,7 +19224,7 @@
         <v>24</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19237,7 +19242,7 @@
         <v>37</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19255,7 +19260,7 @@
         <v>39</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19273,7 +19278,7 @@
         <v>37</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19291,7 +19296,7 @@
         <v>25</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19309,7 +19314,7 @@
         <v>21</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19327,7 +19332,7 @@
         <v>37</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19345,7 +19350,7 @@
         <v>24</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19363,7 +19368,7 @@
         <v>39</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19381,7 +19386,7 @@
         <v>26</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19399,7 +19404,7 @@
         <v>29</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19417,7 +19422,7 @@
         <v>37</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19435,7 +19440,7 @@
         <v>24</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -19454,7 +19459,7 @@
         <v>37</v>
       </c>
       <c r="K110" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19472,7 +19477,7 @@
         <v>21</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19490,7 +19495,7 @@
         <v>37</v>
       </c>
       <c r="K112" s="20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19508,7 +19513,7 @@
         <v>27</v>
       </c>
       <c r="K113" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19526,7 +19531,7 @@
         <v>37</v>
       </c>
       <c r="K114" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19545,7 +19550,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19563,7 +19568,7 @@
         <v>37</v>
       </c>
       <c r="K116" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19581,7 +19586,7 @@
         <v>39</v>
       </c>
       <c r="K117" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -19600,7 +19605,7 @@
         <v>37</v>
       </c>
       <c r="K118" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19618,7 +19623,7 @@
         <v>24</v>
       </c>
       <c r="K119" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19636,7 +19641,7 @@
         <v>37</v>
       </c>
       <c r="K120" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19654,7 +19659,7 @@
         <v>24</v>
       </c>
       <c r="K121" s="20" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19672,7 +19677,7 @@
         <v>24</v>
       </c>
       <c r="K122" s="20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19690,7 +19695,7 @@
         <v>24</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19708,7 +19713,7 @@
         <v>37</v>
       </c>
       <c r="K124" s="20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -19727,7 +19732,7 @@
         <v>24</v>
       </c>
       <c r="K125" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19745,7 +19750,7 @@
         <v>37</v>
       </c>
       <c r="K126" s="20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19763,7 +19768,7 @@
         <v>29</v>
       </c>
       <c r="K127" s="20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19781,7 +19786,7 @@
         <v>37</v>
       </c>
       <c r="K128" s="20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19797,7 +19802,7 @@
       </c>
       <c r="D129" s="6"/>
       <c r="K129" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19815,7 +19820,7 @@
         <v>39</v>
       </c>
       <c r="K130" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19833,7 +19838,7 @@
         <v>37</v>
       </c>
       <c r="K131" s="20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19851,7 +19856,7 @@
         <v>39</v>
       </c>
       <c r="K132" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L132" t="s">
         <v>246</v>
@@ -19872,7 +19877,7 @@
         <v>24</v>
       </c>
       <c r="K133" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19890,7 +19895,7 @@
         <v>39</v>
       </c>
       <c r="K134" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19908,7 +19913,7 @@
         <v>37</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19926,7 +19931,7 @@
         <v>39</v>
       </c>
       <c r="K136" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19944,7 +19949,7 @@
         <v>37</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19962,7 +19967,7 @@
         <v>39</v>
       </c>
       <c r="K138" s="20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19980,7 +19985,7 @@
         <v>37</v>
       </c>
       <c r="K139" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19998,7 +20003,7 @@
         <v>39</v>
       </c>
       <c r="K140" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20016,7 +20021,7 @@
         <v>37</v>
       </c>
       <c r="K141" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20032,7 +20037,7 @@
       </c>
       <c r="D142" s="1"/>
       <c r="K142" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20050,7 +20055,7 @@
         <v>37</v>
       </c>
       <c r="K143" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20068,7 +20073,7 @@
         <v>39</v>
       </c>
       <c r="K144" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20086,7 +20091,7 @@
         <v>37</v>
       </c>
       <c r="K145" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20105,7 +20110,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20123,7 +20128,7 @@
         <v>37</v>
       </c>
       <c r="K147" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20141,7 +20146,7 @@
         <v>24</v>
       </c>
       <c r="K148" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20159,7 +20164,7 @@
         <v>37</v>
       </c>
       <c r="K149" s="20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20177,7 +20182,7 @@
         <v>24</v>
       </c>
       <c r="K150" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20195,7 +20200,7 @@
         <v>37</v>
       </c>
       <c r="K151" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20213,7 +20218,7 @@
         <v>27</v>
       </c>
       <c r="K152" s="20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20231,7 +20236,7 @@
         <v>37</v>
       </c>
       <c r="K153" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20249,7 +20254,7 @@
         <v>39</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20267,7 +20272,7 @@
         <v>39</v>
       </c>
       <c r="K155" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20285,7 +20290,7 @@
         <v>37</v>
       </c>
       <c r="K156" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20303,7 +20308,7 @@
         <v>24</v>
       </c>
       <c r="K157" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20321,7 +20326,7 @@
         <v>39</v>
       </c>
       <c r="K158" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20339,7 +20344,7 @@
         <v>37</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20357,7 +20362,7 @@
         <v>39</v>
       </c>
       <c r="K160" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20375,7 +20380,7 @@
         <v>37</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20393,7 +20398,7 @@
         <v>39</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20411,7 +20416,7 @@
         <v>39</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -20430,7 +20435,7 @@
         <v>39</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20448,7 +20453,7 @@
         <v>37</v>
       </c>
       <c r="K165" s="20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20466,7 +20471,7 @@
         <v>24</v>
       </c>
       <c r="K166" s="20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20484,7 +20489,7 @@
         <v>37</v>
       </c>
       <c r="K167" s="20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20502,7 +20507,7 @@
         <v>39</v>
       </c>
       <c r="K168" s="20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20520,7 +20525,7 @@
         <v>37</v>
       </c>
       <c r="K169" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20538,7 +20543,7 @@
         <v>39</v>
       </c>
       <c r="K170" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20556,7 +20561,7 @@
         <v>37</v>
       </c>
       <c r="K171" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20574,7 +20579,7 @@
         <v>24</v>
       </c>
       <c r="K172" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20592,7 +20597,7 @@
         <v>37</v>
       </c>
       <c r="K173" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20610,7 +20615,7 @@
         <v>24</v>
       </c>
       <c r="K174" s="20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20628,7 +20633,7 @@
         <v>37</v>
       </c>
       <c r="K175" s="20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20646,7 +20651,7 @@
         <v>29</v>
       </c>
       <c r="K176" s="20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20664,7 +20669,7 @@
         <v>37</v>
       </c>
       <c r="K177" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20682,7 +20687,7 @@
         <v>39</v>
       </c>
       <c r="K178" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20700,7 +20705,7 @@
         <v>29</v>
       </c>
       <c r="K179" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20718,7 +20723,7 @@
         <v>37</v>
       </c>
       <c r="K180" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21106,6 +21111,7 @@
       <c r="A235" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U182" xr:uid="{D37F13CE-61AC-4BC5-86CA-C77E1662ACB3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21119,7 +21125,7 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289B02A-50B1-494C-8D0E-58CEBF2F46AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C8C9A1-5906-47F8-AA9C-B518D96BB440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -10416,16 +10416,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D160" sqref="D160"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10543,7 +10543,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>80</v>
       </c>
@@ -10592,7 +10592,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>110</v>
       </c>
@@ -10614,7 +10614,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>113</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>124</v>
       </c>
@@ -10666,7 +10666,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>127</v>
       </c>
@@ -10688,7 +10688,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>157</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>171</v>
       </c>
@@ -10728,7 +10728,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>173</v>
       </c>
@@ -10768,7 +10768,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>177</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>191</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>193</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>233</v>
       </c>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>282</v>
       </c>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>287</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>293</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>347</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>366</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>370</v>
       </c>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>389</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>391</v>
       </c>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>399</v>
       </c>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>406</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>417</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>420</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>453</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>456</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>462</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>478</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>503</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>523</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>528</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>534</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>538</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>539</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>544</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>552</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>556</v>
       </c>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>569</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>600</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>610</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>612</v>
       </c>
@@ -11455,13 +11455,13 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>622</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>634</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>635</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>665</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>672</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>689</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>764</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>775</v>
       </c>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>780</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>785</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>789</v>
       </c>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>794</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>798</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>800</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>828</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>837</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>903</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>935</v>
       </c>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>941</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>957</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>968</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>984</v>
       </c>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>988</v>
       </c>
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>994</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1014</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1024</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1053</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1058</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1063</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1098</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1111</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1141</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1145</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1190</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1193</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1219</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1226</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1235</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1238</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1276</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1300</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1376</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1408</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1410</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1422</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1429</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1484</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1505</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1509</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1547</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1570</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1583</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1598</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1602</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1650</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1658</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1730</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>1929</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1950</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>1970</v>
       </c>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1990</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>1996</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2020</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2042</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2150</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2156</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2168</v>
       </c>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2214</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2217</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2240</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2252</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2265</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2270</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2274</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2282</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2288</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2347</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2519</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2581</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2595</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2679</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2684</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2719</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2734</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2739</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2742</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2746</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2759</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2768</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2773</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2782</v>
       </c>
@@ -13236,7 +13236,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2785</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2796</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2813</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2817</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2822</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>42</v>
       </c>
@@ -14163,13 +14163,7 @@
       <c r="K282" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:U156" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="CCA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:U156" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17359,7 +17353,7 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
@@ -21124,11 +21118,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="J181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C8C9A1-5906-47F8-AA9C-B518D96BB440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8040EBF4-D24F-44B7-A50B-55D26ACAC1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="684">
   <si>
     <t>D1</t>
   </si>
@@ -927,9 +927,6 @@
   </si>
   <si>
     <t>P6060187</t>
-  </si>
-  <si>
-    <t>cca</t>
   </si>
   <si>
     <t>P6060187-8</t>
@@ -10421,7 +10418,7 @@
   </sheetPr>
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -11476,7 +11473,7 @@
         <v>37</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11494,7 +11491,7 @@
         <v>29</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11512,7 +11509,7 @@
         <v>37</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11530,7 +11527,7 @@
         <v>26</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11548,7 +11545,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11566,7 +11563,7 @@
         <v>37</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11584,7 +11581,7 @@
         <v>29</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11602,7 +11599,7 @@
         <v>37</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11620,7 +11617,7 @@
         <v>24</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11638,7 +11635,7 @@
         <v>37</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -11657,7 +11654,7 @@
         <v>26</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11676,7 +11673,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11695,7 +11692,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -11714,7 +11711,7 @@
         <v>39</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11732,7 +11729,7 @@
         <v>24</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11750,7 +11747,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11769,7 +11766,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11787,7 +11784,7 @@
         <v>37</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11805,7 +11802,7 @@
         <v>21</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11823,7 +11820,7 @@
         <v>24</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11841,7 +11838,7 @@
         <v>24</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -11860,7 +11857,7 @@
         <v>37</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11878,7 +11875,7 @@
         <v>39</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11896,7 +11893,7 @@
         <v>26</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11914,7 +11911,7 @@
         <v>37</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -11933,7 +11930,7 @@
         <v>24</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -11952,7 +11949,7 @@
         <v>37</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11970,7 +11967,7 @@
         <v>26</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11988,7 +11985,7 @@
         <v>26</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12006,7 +12003,7 @@
         <v>25</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12024,7 +12021,7 @@
         <v>26</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12042,7 +12039,7 @@
         <v>37</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12060,7 +12057,7 @@
         <v>26</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12078,7 +12075,7 @@
         <v>37</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12096,7 +12093,7 @@
         <v>24</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12114,7 +12111,7 @@
         <v>37</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12130,7 +12127,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12148,7 +12145,7 @@
         <v>37</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12166,7 +12163,7 @@
         <v>39</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12184,7 +12181,7 @@
         <v>37</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12199,10 +12196,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12220,7 +12217,7 @@
         <v>37</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12238,7 +12235,7 @@
         <v>23</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L95" s="13" t="s">
         <v>246</v>
@@ -12259,7 +12256,7 @@
         <v>21</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L96" s="13" t="s">
         <v>246</v>
@@ -12280,7 +12277,7 @@
         <v>39</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12298,7 +12295,7 @@
         <v>26</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12316,7 +12313,7 @@
         <v>37</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12334,7 +12331,7 @@
         <v>39</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12352,7 +12349,7 @@
         <v>37</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12370,7 +12367,7 @@
         <v>39</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12388,7 +12385,7 @@
         <v>39</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12406,7 +12403,7 @@
         <v>37</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12424,7 +12421,7 @@
         <v>25</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12442,7 +12439,7 @@
         <v>39</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12460,7 +12457,7 @@
         <v>37</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12478,7 +12475,7 @@
         <v>24</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12496,7 +12493,7 @@
         <v>26</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -12515,7 +12512,7 @@
         <v>29</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12533,7 +12530,7 @@
         <v>24</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12551,7 +12548,7 @@
         <v>37</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12569,7 +12566,7 @@
         <v>39</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12587,7 +12584,7 @@
         <v>39</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12606,7 +12603,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12624,7 +12621,7 @@
         <v>29</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12642,7 +12639,7 @@
         <v>24</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -12661,7 +12658,7 @@
         <v>39</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12679,7 +12676,7 @@
         <v>39</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12697,7 +12694,7 @@
         <v>39</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12715,7 +12712,7 @@
         <v>37</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12733,7 +12730,7 @@
         <v>24</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12751,7 +12748,7 @@
         <v>37</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12769,7 +12766,7 @@
         <v>39</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -12788,7 +12785,7 @@
         <v>37</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12806,7 +12803,7 @@
         <v>39</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12824,7 +12821,7 @@
         <v>37</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12842,7 +12839,7 @@
         <v>29</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12860,7 +12857,7 @@
         <v>37</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12878,7 +12875,7 @@
         <v>24</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12896,7 +12893,7 @@
         <v>37</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12912,7 +12909,7 @@
       </c>
       <c r="D132" s="1"/>
       <c r="K132" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12930,7 +12927,7 @@
         <v>37</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12948,7 +12945,7 @@
         <v>39</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12966,7 +12963,7 @@
         <v>39</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12984,7 +12981,7 @@
         <v>37</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13002,7 +12999,7 @@
         <v>39</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13020,7 +13017,7 @@
         <v>39</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13038,7 +13035,7 @@
         <v>39</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13056,7 +13053,7 @@
         <v>37</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13072,7 +13069,7 @@
       </c>
       <c r="D141" s="14"/>
       <c r="K141" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13090,7 +13087,7 @@
         <v>37</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13106,7 +13103,7 @@
       </c>
       <c r="D143" s="14"/>
       <c r="K143" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13124,7 +13121,7 @@
         <v>24</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13142,7 +13139,7 @@
         <v>37</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13161,7 +13158,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13179,7 +13176,7 @@
         <v>29</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13197,7 +13194,7 @@
         <v>37</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13215,7 +13212,7 @@
         <v>26</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13233,7 +13230,7 @@
         <v>39</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13251,7 +13248,7 @@
         <v>26</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13269,7 +13266,7 @@
         <v>26</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13287,7 +13284,7 @@
         <v>39</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13305,7 +13302,7 @@
         <v>24</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13315,7 +13312,7 @@
       <c r="C155" s="6"/>
       <c r="D155" s="14"/>
       <c r="K155" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14313,7 +14310,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -14338,7 +14335,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -14358,7 +14355,7 @@
         <v>37</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -14378,7 +14375,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -14402,7 +14399,7 @@
         <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -14426,7 +14423,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -14447,7 +14444,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -14467,7 +14464,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -14487,7 +14484,7 @@
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -14508,7 +14505,7 @@
         <v>39</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -14529,7 +14526,7 @@
         <v>37</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -14549,7 +14546,7 @@
         <v>39</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -14567,7 +14564,7 @@
         <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -14585,7 +14582,7 @@
         <v>39</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -14604,7 +14601,7 @@
         <v>37</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -14623,7 +14620,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -14641,7 +14638,7 @@
         <v>37</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -14659,7 +14656,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -14677,7 +14674,7 @@
         <v>37</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -14695,7 +14692,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -14714,7 +14711,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -14733,7 +14730,7 @@
         <v>27</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -14752,7 +14749,7 @@
         <v>37</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -14771,7 +14768,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -14789,7 +14786,7 @@
         <v>37</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -14807,7 +14804,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -14825,7 +14822,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -14843,7 +14840,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -14861,7 +14858,7 @@
         <v>37</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -14879,7 +14876,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -14897,7 +14894,7 @@
         <v>37</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -14915,7 +14912,7 @@
         <v>29</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -14933,7 +14930,7 @@
         <v>37</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -14951,7 +14948,7 @@
         <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -14969,7 +14966,7 @@
         <v>24</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -14987,7 +14984,7 @@
         <v>37</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -15005,7 +15002,7 @@
         <v>29</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -15023,7 +15020,7 @@
         <v>37</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -15042,7 +15039,7 @@
         <v>29</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -15060,7 +15057,7 @@
         <v>37</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -15078,7 +15075,7 @@
         <v>24</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -15096,7 +15093,7 @@
         <v>37</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -15115,7 +15112,7 @@
         <v>26</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -15133,7 +15130,7 @@
         <v>37</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -15151,7 +15148,7 @@
         <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -15169,7 +15166,7 @@
         <v>37</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -15187,7 +15184,7 @@
         <v>27</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -15205,7 +15202,7 @@
         <v>27</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -15223,7 +15220,7 @@
         <v>22</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -15241,7 +15238,7 @@
         <v>29</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -15256,7 +15253,7 @@
         <v>4</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -15274,7 +15271,7 @@
         <v>29</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -15292,7 +15289,7 @@
         <v>37</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -15310,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -15328,7 +15325,7 @@
         <v>37</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -15346,7 +15343,7 @@
         <v>26</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -15361,7 +15358,7 @@
         <v>7</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -15379,7 +15376,7 @@
         <v>24</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -15398,7 +15395,7 @@
         <v>39</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -15416,7 +15413,7 @@
         <v>26</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -15434,7 +15431,7 @@
         <v>37</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -15453,7 +15450,7 @@
         <v>39</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -15471,7 +15468,7 @@
         <v>37</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -15489,7 +15486,7 @@
         <v>39</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -15507,7 +15504,7 @@
         <v>39</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -15525,7 +15522,7 @@
         <v>37</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -15543,7 +15540,7 @@
         <v>26</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -15561,7 +15558,7 @@
         <v>37</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -15579,7 +15576,7 @@
         <v>26</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -15598,7 +15595,7 @@
         <v>26</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -15616,7 +15613,7 @@
         <v>39</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -15634,7 +15631,7 @@
         <v>39</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -15652,7 +15649,7 @@
         <v>23</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -15671,7 +15668,7 @@
         <v>27</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -15690,7 +15687,7 @@
         <v>39</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -15708,7 +15705,7 @@
         <v>37</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -15726,7 +15723,7 @@
         <v>39</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -15744,7 +15741,7 @@
         <v>39</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -15762,7 +15759,7 @@
         <v>37</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -15780,7 +15777,7 @@
         <v>27</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -15798,7 +15795,7 @@
         <v>37</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -15816,7 +15813,7 @@
         <v>29</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -15834,7 +15831,7 @@
         <v>37</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -15852,7 +15849,7 @@
         <v>24</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -15870,7 +15867,7 @@
         <v>37</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -15888,7 +15885,7 @@
         <v>29</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -15904,7 +15901,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -15922,7 +15919,7 @@
         <v>37</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -15938,7 +15935,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -15956,7 +15953,7 @@
         <v>37</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -15974,7 +15971,7 @@
         <v>29</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -15992,7 +15989,7 @@
         <v>24</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -16010,7 +16007,7 @@
         <v>29</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -16028,7 +16025,7 @@
         <v>37</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -16046,7 +16043,7 @@
         <v>39</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -16064,7 +16061,7 @@
         <v>21</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -16082,7 +16079,7 @@
         <v>26</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -16100,7 +16097,7 @@
         <v>37</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -16118,7 +16115,7 @@
         <v>39</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -16136,7 +16133,7 @@
         <v>37</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -16154,7 +16151,7 @@
         <v>21</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -16172,7 +16169,7 @@
         <v>37</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -16190,7 +16187,7 @@
         <v>24</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -16208,7 +16205,7 @@
         <v>29</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -16226,7 +16223,7 @@
         <v>37</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -16244,7 +16241,7 @@
         <v>26</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -16262,7 +16259,7 @@
         <v>26</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -16280,7 +16277,7 @@
         <v>29</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -16298,7 +16295,7 @@
         <v>37</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -16316,7 +16313,7 @@
         <v>29</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -16335,7 +16332,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -16353,7 +16350,7 @@
         <v>29</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -16371,7 +16368,7 @@
         <v>37</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -16390,7 +16387,7 @@
         <v>25</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -16408,7 +16405,7 @@
         <v>37</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -16426,7 +16423,7 @@
         <v>25</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -16444,7 +16441,7 @@
         <v>37</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -16462,7 +16459,7 @@
         <v>29</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -16480,7 +16477,7 @@
         <v>37</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -16498,7 +16495,7 @@
         <v>39</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -16517,7 +16514,7 @@
         <v>37</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -16535,7 +16532,7 @@
         <v>21</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -16553,7 +16550,7 @@
         <v>37</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -16571,7 +16568,7 @@
         <v>21</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -16589,7 +16586,7 @@
         <v>39</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -16607,7 +16604,7 @@
         <v>37</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -16625,7 +16622,7 @@
         <v>24</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -16643,7 +16640,7 @@
         <v>24</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -16661,7 +16658,7 @@
         <v>39</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -16679,7 +16676,7 @@
         <v>24</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -16697,7 +16694,7 @@
         <v>37</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -16715,7 +16712,7 @@
         <v>27</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -16733,7 +16730,7 @@
         <v>37</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -16751,7 +16748,7 @@
         <v>24</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -16769,7 +16766,7 @@
         <v>37</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -16787,7 +16784,7 @@
         <v>24</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -16805,7 +16802,7 @@
         <v>24</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -16823,7 +16820,7 @@
         <v>37</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -16833,7 +16830,7 @@
       <c r="C143" s="6"/>
       <c r="D143" s="1"/>
       <c r="K143" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -17379,7 +17376,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -17491,7 +17488,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -17518,7 +17515,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -17540,7 +17537,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -17562,7 +17559,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -17588,7 +17585,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -17613,7 +17610,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -17634,7 +17631,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -17654,7 +17651,7 @@
         <v>37</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -17674,7 +17671,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -17695,7 +17692,7 @@
         <v>37</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -17716,7 +17713,7 @@
         <v>39</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -17737,7 +17734,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17755,7 +17752,7 @@
         <v>37</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17774,7 +17771,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -17793,7 +17790,7 @@
         <v>39</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -17812,7 +17809,7 @@
         <v>37</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17830,7 +17827,7 @@
         <v>24</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17849,7 +17846,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17868,7 +17865,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17886,7 +17883,7 @@
         <v>29</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -17905,7 +17902,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -17924,7 +17921,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -17943,7 +17940,7 @@
         <v>24</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -17962,7 +17959,7 @@
         <v>37</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17980,7 +17977,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17998,7 +17995,7 @@
         <v>37</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18016,7 +18013,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18034,7 +18031,7 @@
         <v>37</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18052,7 +18049,7 @@
         <v>39</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18070,7 +18067,7 @@
         <v>37</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18088,7 +18085,7 @@
         <v>27</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18106,7 +18103,7 @@
         <v>37</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18124,7 +18121,7 @@
         <v>39</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18142,7 +18139,7 @@
         <v>24</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18160,7 +18157,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18178,7 +18175,7 @@
         <v>39</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18196,7 +18193,7 @@
         <v>37</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18214,7 +18211,7 @@
         <v>39</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -18233,7 +18230,7 @@
         <v>37</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18251,7 +18248,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18270,7 +18267,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18288,7 +18285,7 @@
         <v>24</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -18307,7 +18304,7 @@
         <v>37</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18325,7 +18322,7 @@
         <v>24</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18343,7 +18340,7 @@
         <v>37</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18361,7 +18358,7 @@
         <v>39</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18379,7 +18376,7 @@
         <v>37</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18397,7 +18394,7 @@
         <v>21</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18415,7 +18412,7 @@
         <v>37</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18433,7 +18430,7 @@
         <v>21</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18451,7 +18448,7 @@
         <v>37</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18469,7 +18466,7 @@
         <v>29</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18487,7 +18484,7 @@
         <v>24</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18505,7 +18502,7 @@
         <v>37</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18523,7 +18520,7 @@
         <v>39</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18541,7 +18538,7 @@
         <v>37</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18559,7 +18556,7 @@
         <v>24</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18577,7 +18574,7 @@
         <v>29</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -18596,7 +18593,7 @@
         <v>37</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18615,7 +18612,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18634,7 +18631,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -18653,7 +18650,7 @@
         <v>37</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18671,7 +18668,7 @@
         <v>29</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18689,7 +18686,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18708,7 +18705,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18726,7 +18723,7 @@
         <v>24</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18744,7 +18741,7 @@
         <v>39</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18762,7 +18759,7 @@
         <v>37</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18780,7 +18777,7 @@
         <v>39</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -18799,7 +18796,7 @@
         <v>37</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18817,7 +18814,7 @@
         <v>29</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18835,7 +18832,7 @@
         <v>24</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18853,7 +18850,7 @@
         <v>29</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -18872,7 +18869,7 @@
         <v>37</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -18891,7 +18888,7 @@
         <v>39</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18909,7 +18906,7 @@
         <v>24</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18927,7 +18924,7 @@
         <v>37</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18945,7 +18942,7 @@
         <v>24</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18963,7 +18960,7 @@
         <v>37</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -18981,7 +18978,7 @@
         <v>27</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L84" t="s">
         <v>43</v>
@@ -19002,7 +18999,7 @@
         <v>37</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19020,7 +19017,7 @@
         <v>24</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19038,7 +19035,7 @@
         <v>37</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19056,7 +19053,7 @@
         <v>24</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19074,7 +19071,7 @@
         <v>37</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19092,7 +19089,7 @@
         <v>21</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19110,7 +19107,7 @@
         <v>37</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19128,7 +19125,7 @@
         <v>29</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19146,7 +19143,7 @@
         <v>26</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19164,7 +19161,7 @@
         <v>37</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19182,7 +19179,7 @@
         <v>29</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19200,7 +19197,7 @@
         <v>37</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19218,7 +19215,7 @@
         <v>24</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19236,7 +19233,7 @@
         <v>37</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19254,7 +19251,7 @@
         <v>39</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19272,7 +19269,7 @@
         <v>37</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19290,7 +19287,7 @@
         <v>25</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19308,7 +19305,7 @@
         <v>21</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19326,7 +19323,7 @@
         <v>37</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19344,7 +19341,7 @@
         <v>24</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19362,7 +19359,7 @@
         <v>39</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19380,7 +19377,7 @@
         <v>26</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19398,7 +19395,7 @@
         <v>29</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19416,7 +19413,7 @@
         <v>37</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19434,7 +19431,7 @@
         <v>24</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -19453,7 +19450,7 @@
         <v>37</v>
       </c>
       <c r="K110" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19471,7 +19468,7 @@
         <v>21</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19489,7 +19486,7 @@
         <v>37</v>
       </c>
       <c r="K112" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19507,7 +19504,7 @@
         <v>27</v>
       </c>
       <c r="K113" s="20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19525,7 +19522,7 @@
         <v>37</v>
       </c>
       <c r="K114" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19544,7 +19541,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19562,7 +19559,7 @@
         <v>37</v>
       </c>
       <c r="K116" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19580,7 +19577,7 @@
         <v>39</v>
       </c>
       <c r="K117" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -19599,7 +19596,7 @@
         <v>37</v>
       </c>
       <c r="K118" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19617,7 +19614,7 @@
         <v>24</v>
       </c>
       <c r="K119" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19635,7 +19632,7 @@
         <v>37</v>
       </c>
       <c r="K120" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19653,7 +19650,7 @@
         <v>24</v>
       </c>
       <c r="K121" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19671,7 +19668,7 @@
         <v>24</v>
       </c>
       <c r="K122" s="20" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19689,7 +19686,7 @@
         <v>24</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19707,7 +19704,7 @@
         <v>37</v>
       </c>
       <c r="K124" s="20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -19726,7 +19723,7 @@
         <v>24</v>
       </c>
       <c r="K125" s="20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19744,7 +19741,7 @@
         <v>37</v>
       </c>
       <c r="K126" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19762,7 +19759,7 @@
         <v>29</v>
       </c>
       <c r="K127" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19780,7 +19777,7 @@
         <v>37</v>
       </c>
       <c r="K128" s="20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19796,7 +19793,7 @@
       </c>
       <c r="D129" s="6"/>
       <c r="K129" s="20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19814,7 +19811,7 @@
         <v>39</v>
       </c>
       <c r="K130" s="20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19832,7 +19829,7 @@
         <v>37</v>
       </c>
       <c r="K131" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19850,7 +19847,7 @@
         <v>39</v>
       </c>
       <c r="K132" s="20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L132" t="s">
         <v>246</v>
@@ -19871,7 +19868,7 @@
         <v>24</v>
       </c>
       <c r="K133" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19889,7 +19886,7 @@
         <v>39</v>
       </c>
       <c r="K134" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19907,7 +19904,7 @@
         <v>37</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19925,7 +19922,7 @@
         <v>39</v>
       </c>
       <c r="K136" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19943,7 +19940,7 @@
         <v>37</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19961,7 +19958,7 @@
         <v>39</v>
       </c>
       <c r="K138" s="20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19979,7 +19976,7 @@
         <v>37</v>
       </c>
       <c r="K139" s="20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -19997,7 +19994,7 @@
         <v>39</v>
       </c>
       <c r="K140" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20015,7 +20012,7 @@
         <v>37</v>
       </c>
       <c r="K141" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20031,7 +20028,7 @@
       </c>
       <c r="D142" s="1"/>
       <c r="K142" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20049,7 +20046,7 @@
         <v>37</v>
       </c>
       <c r="K143" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20067,7 +20064,7 @@
         <v>39</v>
       </c>
       <c r="K144" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20085,7 +20082,7 @@
         <v>37</v>
       </c>
       <c r="K145" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20104,7 +20101,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20122,7 +20119,7 @@
         <v>37</v>
       </c>
       <c r="K147" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20140,7 +20137,7 @@
         <v>24</v>
       </c>
       <c r="K148" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20158,7 +20155,7 @@
         <v>37</v>
       </c>
       <c r="K149" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20176,7 +20173,7 @@
         <v>24</v>
       </c>
       <c r="K150" s="20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20194,7 +20191,7 @@
         <v>37</v>
       </c>
       <c r="K151" s="20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20212,7 +20209,7 @@
         <v>27</v>
       </c>
       <c r="K152" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20230,7 +20227,7 @@
         <v>37</v>
       </c>
       <c r="K153" s="20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20248,7 +20245,7 @@
         <v>39</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20266,7 +20263,7 @@
         <v>39</v>
       </c>
       <c r="K155" s="20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20284,7 +20281,7 @@
         <v>37</v>
       </c>
       <c r="K156" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20302,7 +20299,7 @@
         <v>24</v>
       </c>
       <c r="K157" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20320,7 +20317,7 @@
         <v>39</v>
       </c>
       <c r="K158" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20338,7 +20335,7 @@
         <v>37</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20356,7 +20353,7 @@
         <v>39</v>
       </c>
       <c r="K160" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20374,7 +20371,7 @@
         <v>37</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20392,7 +20389,7 @@
         <v>39</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20410,7 +20407,7 @@
         <v>39</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -20429,7 +20426,7 @@
         <v>39</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20447,7 +20444,7 @@
         <v>37</v>
       </c>
       <c r="K165" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20465,7 +20462,7 @@
         <v>24</v>
       </c>
       <c r="K166" s="20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20483,7 +20480,7 @@
         <v>37</v>
       </c>
       <c r="K167" s="20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20501,7 +20498,7 @@
         <v>39</v>
       </c>
       <c r="K168" s="20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20519,7 +20516,7 @@
         <v>37</v>
       </c>
       <c r="K169" s="20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20537,7 +20534,7 @@
         <v>39</v>
       </c>
       <c r="K170" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20555,7 +20552,7 @@
         <v>37</v>
       </c>
       <c r="K171" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20573,7 +20570,7 @@
         <v>24</v>
       </c>
       <c r="K172" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20591,7 +20588,7 @@
         <v>37</v>
       </c>
       <c r="K173" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20609,7 +20606,7 @@
         <v>24</v>
       </c>
       <c r="K174" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20627,7 +20624,7 @@
         <v>37</v>
       </c>
       <c r="K175" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20645,7 +20642,7 @@
         <v>29</v>
       </c>
       <c r="K176" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20663,7 +20660,7 @@
         <v>37</v>
       </c>
       <c r="K177" s="20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20681,7 +20678,7 @@
         <v>39</v>
       </c>
       <c r="K178" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20699,7 +20696,7 @@
         <v>29</v>
       </c>
       <c r="K179" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -20717,7 +20714,7 @@
         <v>37</v>
       </c>
       <c r="K180" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21118,11 +21115,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J181" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21257,7 +21254,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -21284,7 +21281,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -21306,7 +21303,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -21328,7 +21325,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -21354,7 +21351,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -21379,7 +21376,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -21400,7 +21397,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -21420,7 +21417,7 @@
         <v>37</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -21440,7 +21437,7 @@
         <v>39</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -21461,7 +21458,7 @@
         <v>37</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -21482,7 +21479,7 @@
         <v>39</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -21503,7 +21500,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -21521,7 +21518,7 @@
         <v>37</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -21540,7 +21537,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -21559,7 +21556,7 @@
         <v>37</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -21578,7 +21575,7 @@
         <v>39</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -21596,7 +21593,7 @@
         <v>37</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -21615,7 +21612,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -21634,7 +21631,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -21652,7 +21649,7 @@
         <v>39</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -21671,7 +21668,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -21690,7 +21687,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -21709,7 +21706,7 @@
         <v>37</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -21728,7 +21725,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -21746,7 +21743,7 @@
         <v>37</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -21764,7 +21761,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -21782,7 +21779,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -21800,7 +21797,7 @@
         <v>39</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -21818,7 +21815,7 @@
         <v>37</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -21834,7 +21831,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="K34" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -21852,7 +21849,7 @@
         <v>37</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -21870,7 +21867,7 @@
         <v>24</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -21888,7 +21885,7 @@
         <v>37</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -21906,7 +21903,7 @@
         <v>26</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -21924,7 +21921,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -21942,7 +21939,7 @@
         <v>26</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -21960,7 +21957,7 @@
         <v>26</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -21978,7 +21975,7 @@
         <v>37</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -21997,7 +21994,7 @@
         <v>39</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -22015,7 +22012,7 @@
         <v>39</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -22034,7 +22031,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -22052,7 +22049,7 @@
         <v>37</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -22069,7 +22066,7 @@
       </c>
       <c r="D47" s="6"/>
       <c r="K47" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -22087,7 +22084,7 @@
         <v>39</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -22105,7 +22102,7 @@
         <v>37</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -22121,7 +22118,7 @@
       </c>
       <c r="D50" s="6"/>
       <c r="K50" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -22139,7 +22136,7 @@
         <v>37</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -22157,7 +22154,7 @@
         <v>24</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -22175,7 +22172,7 @@
         <v>39</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -22193,7 +22190,7 @@
         <v>39</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -22211,7 +22208,7 @@
         <v>37</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -22229,7 +22226,7 @@
         <v>39</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -22247,7 +22244,7 @@
         <v>39</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -22263,7 +22260,7 @@
       </c>
       <c r="D58" s="6"/>
       <c r="K58" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -22281,7 +22278,7 @@
         <v>39</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -22299,7 +22296,7 @@
         <v>37</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -22317,7 +22314,7 @@
         <v>39</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -22335,7 +22332,7 @@
         <v>37</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -22354,7 +22351,7 @@
         <v>29</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -22373,7 +22370,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -22392,7 +22389,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -22411,7 +22408,7 @@
         <v>37</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -22429,7 +22426,7 @@
         <v>24</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -22447,7 +22444,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -22466,7 +22463,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -22484,7 +22481,7 @@
         <v>24</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -22502,7 +22499,7 @@
         <v>37</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -22520,7 +22517,7 @@
         <v>29</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -22538,7 +22535,7 @@
         <v>37</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -22557,7 +22554,7 @@
         <v>24</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -22575,7 +22572,7 @@
         <v>39</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -22593,7 +22590,7 @@
         <v>29</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -22611,7 +22608,7 @@
         <v>37</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -22630,7 +22627,7 @@
         <v>24</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -22649,7 +22646,7 @@
         <v>29</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -22667,7 +22664,7 @@
         <v>37</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -22685,7 +22682,7 @@
         <v>29</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -22703,7 +22700,7 @@
         <v>37</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -22721,7 +22718,7 @@
         <v>39</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -22739,7 +22736,7 @@
         <v>37</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -22757,7 +22754,7 @@
         <v>39</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -22775,7 +22772,7 @@
         <v>37</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -22793,7 +22790,7 @@
         <v>39</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -22811,7 +22808,7 @@
         <v>24</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -22829,7 +22826,7 @@
         <v>37</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -22847,7 +22844,7 @@
         <v>29</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -22865,7 +22862,7 @@
         <v>37</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -22883,7 +22880,7 @@
         <v>29</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -22901,7 +22898,7 @@
         <v>37</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -22919,7 +22916,7 @@
         <v>29</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -22937,7 +22934,7 @@
         <v>37</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -22955,7 +22952,7 @@
         <v>29</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -22973,7 +22970,7 @@
         <v>37</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -22991,7 +22988,7 @@
         <v>24</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -23009,7 +23006,7 @@
         <v>25</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -23027,7 +23024,7 @@
         <v>29</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -23045,7 +23042,7 @@
         <v>37</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -23063,7 +23060,7 @@
         <v>39</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -23081,7 +23078,7 @@
         <v>29</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -23099,7 +23096,7 @@
         <v>24</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -23117,7 +23114,7 @@
         <v>39</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -23135,7 +23132,7 @@
         <v>24</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -23153,7 +23150,7 @@
         <v>29</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -23171,7 +23168,7 @@
         <v>37</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -23189,7 +23186,7 @@
         <v>29</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -23206,7 +23203,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="K110" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -23224,7 +23221,7 @@
         <v>29</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -23242,7 +23239,7 @@
         <v>37</v>
       </c>
       <c r="K112" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -23260,7 +23257,7 @@
         <v>29</v>
       </c>
       <c r="K113" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -23278,7 +23275,7 @@
         <v>37</v>
       </c>
       <c r="K114" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -23297,7 +23294,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -23315,7 +23312,7 @@
         <v>37</v>
       </c>
       <c r="K116" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -23333,7 +23330,7 @@
         <v>24</v>
       </c>
       <c r="K117" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -23352,7 +23349,7 @@
         <v>37</v>
       </c>
       <c r="K118" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -23370,7 +23367,7 @@
         <v>24</v>
       </c>
       <c r="K119" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -23388,7 +23385,7 @@
         <v>29</v>
       </c>
       <c r="K120" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -23406,7 +23403,7 @@
         <v>24</v>
       </c>
       <c r="K121" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -23424,7 +23421,7 @@
         <v>37</v>
       </c>
       <c r="K122" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -23442,7 +23439,7 @@
         <v>39</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -23460,7 +23457,7 @@
         <v>26</v>
       </c>
       <c r="K124" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -23479,7 +23476,7 @@
         <v>37</v>
       </c>
       <c r="K125" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -23497,7 +23494,7 @@
         <v>29</v>
       </c>
       <c r="K126" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -23513,10 +23510,10 @@
       </c>
       <c r="D127" s="6"/>
       <c r="K127" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="L127" t="s">
         <v>524</v>
-      </c>
-      <c r="L127" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -23534,7 +23531,7 @@
         <v>29</v>
       </c>
       <c r="K128" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -23550,7 +23547,7 @@
       </c>
       <c r="D129" s="6"/>
       <c r="K129" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -23565,10 +23562,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="K130" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -23586,7 +23583,7 @@
         <v>24</v>
       </c>
       <c r="K131" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -23604,7 +23601,7 @@
         <v>37</v>
       </c>
       <c r="K132" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -23622,7 +23619,7 @@
         <v>29</v>
       </c>
       <c r="K133" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -23640,7 +23637,7 @@
         <v>37</v>
       </c>
       <c r="K134" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -23658,7 +23655,7 @@
         <v>24</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -23676,7 +23673,7 @@
         <v>37</v>
       </c>
       <c r="K136" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -23694,7 +23691,7 @@
         <v>39</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L137" s="13" t="s">
         <v>246</v>
@@ -23715,7 +23712,7 @@
         <v>37</v>
       </c>
       <c r="K138" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L138" s="13" t="s">
         <v>246</v>
@@ -23736,7 +23733,7 @@
         <v>39</v>
       </c>
       <c r="K139" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -23754,7 +23751,7 @@
         <v>37</v>
       </c>
       <c r="K140" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -23772,7 +23769,7 @@
         <v>39</v>
       </c>
       <c r="K141" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -23780,7 +23777,7 @@
         <v>2007</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C142" s="6">
         <f t="shared" si="2"/>
@@ -23790,7 +23787,7 @@
         <v>26</v>
       </c>
       <c r="K142" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -23808,7 +23805,7 @@
         <v>37</v>
       </c>
       <c r="K143" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L143" s="13" t="s">
         <v>246</v>
@@ -23829,7 +23826,7 @@
         <v>29</v>
       </c>
       <c r="K144" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L144" s="13" t="s">
         <v>246</v>
@@ -23850,7 +23847,7 @@
         <v>39</v>
       </c>
       <c r="K145" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -23869,7 +23866,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -23887,7 +23884,7 @@
         <v>26</v>
       </c>
       <c r="K147" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -23905,7 +23902,7 @@
         <v>37</v>
       </c>
       <c r="K148" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -23923,7 +23920,7 @@
         <v>29</v>
       </c>
       <c r="K149" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -23941,7 +23938,7 @@
         <v>37</v>
       </c>
       <c r="K150" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -23956,10 +23953,10 @@
         <v>2</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="K151" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -23977,7 +23974,7 @@
         <v>26</v>
       </c>
       <c r="K152" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -23995,7 +23992,7 @@
         <v>39</v>
       </c>
       <c r="K153" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -24013,7 +24010,7 @@
         <v>21</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -24031,7 +24028,7 @@
         <v>37</v>
       </c>
       <c r="K155" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -24047,7 +24044,7 @@
       </c>
       <c r="D156" s="6"/>
       <c r="K156" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L156" s="13" t="s">
         <v>246</v>
@@ -24068,7 +24065,7 @@
         <v>39</v>
       </c>
       <c r="K157" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L157" s="13" t="s">
         <v>246</v>
@@ -24089,7 +24086,7 @@
         <v>37</v>
       </c>
       <c r="K158" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -24107,7 +24104,7 @@
         <v>39</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -24125,7 +24122,7 @@
         <v>29</v>
       </c>
       <c r="K160" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -24143,7 +24140,7 @@
         <v>37</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -24161,7 +24158,7 @@
         <v>29</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -24179,7 +24176,7 @@
         <v>37</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -24198,7 +24195,7 @@
         <v>39</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -24214,7 +24211,7 @@
       </c>
       <c r="D165" s="6"/>
       <c r="K165" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -24232,7 +24229,7 @@
         <v>29</v>
       </c>
       <c r="K166" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -24250,7 +24247,7 @@
         <v>37</v>
       </c>
       <c r="K167" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -24268,7 +24265,7 @@
         <v>39</v>
       </c>
       <c r="K168" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -24286,7 +24283,7 @@
         <v>37</v>
       </c>
       <c r="K169" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -24304,7 +24301,7 @@
         <v>27</v>
       </c>
       <c r="K170" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -24322,7 +24319,7 @@
         <v>37</v>
       </c>
       <c r="K171" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -24340,7 +24337,7 @@
         <v>39</v>
       </c>
       <c r="K172" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -24358,7 +24355,7 @@
         <v>26</v>
       </c>
       <c r="K173" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -24376,7 +24373,7 @@
         <v>37</v>
       </c>
       <c r="K174" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -24394,7 +24391,7 @@
         <v>29</v>
       </c>
       <c r="K175" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -24412,7 +24409,7 @@
         <v>37</v>
       </c>
       <c r="K176" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -24430,7 +24427,7 @@
         <v>29</v>
       </c>
       <c r="K177" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -24448,7 +24445,7 @@
         <v>21</v>
       </c>
       <c r="K178" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -24466,7 +24463,7 @@
         <v>26</v>
       </c>
       <c r="K179" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -24484,7 +24481,7 @@
         <v>28</v>
       </c>
       <c r="K180" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -24502,7 +24499,7 @@
         <v>39</v>
       </c>
       <c r="K181" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -24520,7 +24517,7 @@
         <v>26</v>
       </c>
       <c r="K182" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -24538,7 +24535,7 @@
         <v>37</v>
       </c>
       <c r="K183" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -24554,7 +24551,7 @@
       </c>
       <c r="D184" s="6"/>
       <c r="K184" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -24572,7 +24569,7 @@
         <v>29</v>
       </c>
       <c r="K185" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -24590,7 +24587,7 @@
         <v>26</v>
       </c>
       <c r="K186" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -24606,7 +24603,7 @@
       </c>
       <c r="D187" s="6"/>
       <c r="K187" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -24624,7 +24621,7 @@
         <v>37</v>
       </c>
       <c r="K188" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -24642,7 +24639,7 @@
         <v>29</v>
       </c>
       <c r="K189" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -24660,7 +24657,7 @@
         <v>37</v>
       </c>
       <c r="K190" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -24678,7 +24675,7 @@
         <v>29</v>
       </c>
       <c r="K191" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -24696,7 +24693,7 @@
         <v>39</v>
       </c>
       <c r="K192" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -24714,7 +24711,7 @@
         <v>26</v>
       </c>
       <c r="K193" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -24732,7 +24729,7 @@
         <v>37</v>
       </c>
       <c r="K194" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -24750,7 +24747,7 @@
         <v>24</v>
       </c>
       <c r="K195" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -24768,7 +24765,7 @@
         <v>29</v>
       </c>
       <c r="K196" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -24786,7 +24783,7 @@
         <v>39</v>
       </c>
       <c r="K197" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -24804,7 +24801,7 @@
         <v>37</v>
       </c>
       <c r="K198" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -24815,7 +24812,7 @@
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="K199" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">

--- a/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8040EBF4-D24F-44B7-A50B-55D26ACAC1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB9A1B3-E6FD-41E9-8904-989A6532D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$U$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$U$218</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'D3'!$A$4:$U$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'S1'!$A$4:$U$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$182</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$U$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$U$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6312,7 +6313,7 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="D219" sqref="D219"/>
@@ -10316,91 +10317,91 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3"/>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3"/>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3"/>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3"/>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="223" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="C234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
   </sheetData>
@@ -10419,7 +10420,7 @@
   <dimension ref="A1:U282"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
@@ -14174,10 +14175,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C142"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17136,208 +17137,209 @@
       <c r="D186" s="1"/>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="6"/>
       <c r="D187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="6"/>
       <c r="D188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="6"/>
       <c r="D189" s="1"/>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="6"/>
       <c r="D190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="6"/>
       <c r="D191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="6"/>
       <c r="D192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="6"/>
       <c r="D193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="6"/>
       <c r="D194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="6"/>
       <c r="D195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="6"/>
       <c r="D196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="6"/>
       <c r="D197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="6"/>
       <c r="D198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="6"/>
       <c r="D199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="6"/>
       <c r="D200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="6"/>
       <c r="D201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="6"/>
       <c r="D202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="6"/>
       <c r="D203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="6"/>
       <c r="D204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="6"/>
       <c r="D205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="6"/>
       <c r="D206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="6"/>
       <c r="D207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="6"/>
       <c r="D208" s="1"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="6"/>
       <c r="D209" s="1"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="6"/>
       <c r="D210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="6"/>
       <c r="D211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="225" x14ac:dyDescent="0.3"/>
-    <row r="226" x14ac:dyDescent="0.3"/>
-    <row r="227" x14ac:dyDescent="0.3"/>
-    <row r="228" x14ac:dyDescent="0.3"/>
-    <row r="229" x14ac:dyDescent="0.3"/>
-    <row r="230" x14ac:dyDescent="0.3"/>
-    <row r="231" x14ac:dyDescent="0.3"/>
-    <row r="232" x14ac:dyDescent="0.3"/>
-    <row r="233" x14ac:dyDescent="0.3"/>
-    <row r="234" x14ac:dyDescent="0.3"/>
-    <row r="235" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A4:U144" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21119,7 +21121,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D130" sqref="D130"/>
+      <selection pane="bottomRight" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24031,7 +24033,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>2284</v>
       </c>
@@ -24050,7 +24052,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>2316</v>
       </c>
@@ -24071,7 +24073,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>2325</v>
       </c>
@@ -24089,7 +24091,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>2345</v>
       </c>
@@ -24107,7 +24109,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>2349</v>
       </c>
@@ -24125,7 +24127,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>2356</v>
       </c>
@@ -24143,7 +24145,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>2360</v>
       </c>
@@ -24161,7 +24163,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>2364</v>
       </c>
@@ -24180,7 +24182,7 @@
       </c>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>2403</v>
       </c>
@@ -24198,7 +24200,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>2407</v>
       </c>
@@ -24214,7 +24216,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>2425</v>
       </c>
@@ -24232,7 +24234,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>2453</v>
       </c>
@@ -24250,7 +24252,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>2458</v>
       </c>
@@ -24268,7 +24270,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>2461</v>
       </c>
@@ -24286,7 +24288,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>2469</v>
       </c>
@@ -24304,7 +24306,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>2485</v>
       </c>
@@ -24322,7 +24324,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>2501</v>
       </c>
@@ -24340,7 +24342,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>2510</v>
       </c>
@@ -24358,7 +24360,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>2525</v>
       </c>
@@ -24376,7 +24378,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>2595</v>
       </c>
@@ -24394,7 +24396,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>2598</v>
       </c>
@@ -24412,7 +24414,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>2620</v>
       </c>
@@ -24430,7 +24432,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>2629</v>
       </c>
@@ -24448,7 +24450,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>2637</v>
       </c>
@@ -24466,7 +24468,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>2725</v>
       </c>
@@ -24484,7 +24486,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>2738</v>
       </c>
@@ -24502,7 +24504,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>2745</v>
       </c>
@@ -24520,7 +24522,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>2761</v>
       </c>
@@ -24538,7 +24540,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>2763</v>
       </c>
@@ -24554,7 +24556,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>2773</v>
       </c>
@@ -24572,7 +24574,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>2777</v>
       </c>
@@ -24590,7 +24592,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>2785</v>
       </c>
@@ -24606,7 +24608,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>2790</v>
       </c>
@@ -24624,7 +24626,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="14">
         <v>2800</v>
       </c>
@@ -24642,7 +24644,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="14">
         <v>2804</v>
       </c>
@@ -24660,7 +24662,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="14">
         <v>2828</v>
       </c>
@@ -24678,7 +24680,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="14">
         <v>2831</v>
       </c>
@@ -24696,7 +24698,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="14">
         <v>2834</v>
       </c>
@@ -24714,7 +24716,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="14">
         <v>2842</v>
       </c>
@@ -24732,7 +24734,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="14">
         <v>2891</v>
       </c>
@@ -24750,7 +24752,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="14">
         <v>2898</v>
       </c>
@@ -24768,7 +24770,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="14">
         <v>2916</v>
       </c>
@@ -24786,7 +24788,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="14">
         <v>2920</v>
       </c>
@@ -24804,7 +24806,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="14">
         <v>2923</v>
       </c>
@@ -24815,140 +24817,140 @@
         <v>574</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="K200" s="6"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="K201" s="6"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="K202" s="6"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="K203" s="6"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="K205" s="6"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="K206" s="6"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="K207" s="6"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="K208" s="6"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="K209" s="6"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="K210" s="6"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="K211" s="6"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="K212" s="6"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="K213" s="6"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="K214" s="6"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="K215" s="6"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="K216" s="6"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="K217" s="6"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="K218" s="6"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -24956,114 +24958,114 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="K221" s="6"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="C234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:U4" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <autoFilter ref="A4:U199" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
